--- a/Översikt NYKVARN.xlsx
+++ b/Översikt NYKVARN.xlsx
@@ -572,7 +572,7 @@
         <v>44628</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>44637</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>43438</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -846,7 +846,7 @@
         <v>44862</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -938,7 +938,7 @@
         <v>44602</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1029,7 +1029,7 @@
         <v>45020</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1120,7 +1120,7 @@
         <v>43906</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1205,7 +1205,7 @@
         <v>44610</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1290,7 +1290,7 @@
         <v>44617</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1375,7 +1375,7 @@
         <v>44699</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1465,7 +1465,7 @@
         <v>45050</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1555,7 +1555,7 @@
         <v>43409</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1617,7 +1617,7 @@
         <v>43409</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1679,7 +1679,7 @@
         <v>43413</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1736,7 +1736,7 @@
         <v>43419</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1793,7 +1793,7 @@
         <v>43419</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1850,7 +1850,7 @@
         <v>43440</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1907,7 +1907,7 @@
         <v>43441</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1964,7 +1964,7 @@
         <v>43441</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2021,7 +2021,7 @@
         <v>43443</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2078,7 +2078,7 @@
         <v>43479</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2135,7 +2135,7 @@
         <v>43522</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2192,7 +2192,7 @@
         <v>43534</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2249,7 +2249,7 @@
         <v>43565</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         <v>43609</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2363,7 +2363,7 @@
         <v>43619</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2425,7 +2425,7 @@
         <v>43619</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2487,7 +2487,7 @@
         <v>43649</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2544,7 +2544,7 @@
         <v>43658</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2601,7 +2601,7 @@
         <v>43684</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2658,7 +2658,7 @@
         <v>43724</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2715,7 +2715,7 @@
         <v>43731</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2777,7 +2777,7 @@
         <v>43731</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2839,7 +2839,7 @@
         <v>43731</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2901,7 +2901,7 @@
         <v>43740</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2958,7 +2958,7 @@
         <v>43798</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3015,7 +3015,7 @@
         <v>43803</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3072,7 +3072,7 @@
         <v>43915</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3129,7 +3129,7 @@
         <v>43924</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3191,7 +3191,7 @@
         <v>43924</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3253,7 +3253,7 @@
         <v>43956</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3310,7 +3310,7 @@
         <v>43956</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3367,7 +3367,7 @@
         <v>43993</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3424,7 +3424,7 @@
         <v>44000</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3486,7 +3486,7 @@
         <v>44104</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3543,7 +3543,7 @@
         <v>44148</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3600,7 +3600,7 @@
         <v>44183</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3662,7 +3662,7 @@
         <v>44316</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3719,7 +3719,7 @@
         <v>44332</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3776,7 +3776,7 @@
         <v>44403</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3833,7 +3833,7 @@
         <v>44434</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3890,7 +3890,7 @@
         <v>44462</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3947,7 +3947,7 @@
         <v>44473</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4004,7 +4004,7 @@
         <v>44523</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4061,7 +4061,7 @@
         <v>44540</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4118,7 +4118,7 @@
         <v>44550</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4180,7 +4180,7 @@
         <v>44558</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4242,7 +4242,7 @@
         <v>44602</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4304,7 +4304,7 @@
         <v>44602</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4366,7 +4366,7 @@
         <v>44602</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4428,7 +4428,7 @@
         <v>44610</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4485,7 +4485,7 @@
         <v>44616</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4542,7 +4542,7 @@
         <v>44630</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4599,7 +4599,7 @@
         <v>44635</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4656,7 +4656,7 @@
         <v>44638</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4713,7 +4713,7 @@
         <v>44713</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4775,7 +4775,7 @@
         <v>44713</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4837,7 +4837,7 @@
         <v>44720</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4894,7 +4894,7 @@
         <v>44726</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4951,7 +4951,7 @@
         <v>44730</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5008,7 +5008,7 @@
         <v>44834</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5070,7 +5070,7 @@
         <v>44840</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5127,7 +5127,7 @@
         <v>44867</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5189,7 +5189,7 @@
         <v>44872</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5246,7 +5246,7 @@
         <v>44872</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5303,7 +5303,7 @@
         <v>44875</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5365,7 +5365,7 @@
         <v>44875</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5427,7 +5427,7 @@
         <v>44881</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5489,7 +5489,7 @@
         <v>44883</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5551,7 +5551,7 @@
         <v>44883</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5613,7 +5613,7 @@
         <v>44889</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5675,7 +5675,7 @@
         <v>44973</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5732,7 +5732,7 @@
         <v>44987</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5794,7 +5794,7 @@
         <v>45020</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5856,7 +5856,7 @@
         <v>45034</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5918,7 +5918,7 @@
         <v>45036</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5975,7 +5975,7 @@
         <v>45044</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6037,7 +6037,7 @@
         <v>45044</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6099,7 +6099,7 @@
         <v>45050</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6161,7 +6161,7 @@
         <v>45050</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6223,7 +6223,7 @@
         <v>45050</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6285,7 +6285,7 @@
         <v>45054</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6342,7 +6342,7 @@
         <v>45069</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6399,7 +6399,7 @@
         <v>45084</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6456,7 +6456,7 @@
         <v>45167</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6513,7 +6513,7 @@
         <v>45167</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>

--- a/Översikt NYKVARN.xlsx
+++ b/Översikt NYKVARN.xlsx
@@ -572,7 +572,7 @@
         <v>44628</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>44637</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>43438</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -846,7 +846,7 @@
         <v>44862</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -938,7 +938,7 @@
         <v>44602</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1029,7 +1029,7 @@
         <v>45020</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1120,7 +1120,7 @@
         <v>43906</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1205,7 +1205,7 @@
         <v>44610</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1290,7 +1290,7 @@
         <v>44617</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1375,7 +1375,7 @@
         <v>44699</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1465,7 +1465,7 @@
         <v>45050</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1555,7 +1555,7 @@
         <v>43409</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1617,7 +1617,7 @@
         <v>43409</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1679,7 +1679,7 @@
         <v>43413</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1736,7 +1736,7 @@
         <v>43419</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1793,7 +1793,7 @@
         <v>43419</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1850,7 +1850,7 @@
         <v>43440</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1907,7 +1907,7 @@
         <v>43441</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1964,7 +1964,7 @@
         <v>43441</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2021,7 +2021,7 @@
         <v>43443</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2078,7 +2078,7 @@
         <v>43479</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2135,7 +2135,7 @@
         <v>43522</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2192,7 +2192,7 @@
         <v>43534</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2249,7 +2249,7 @@
         <v>43565</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         <v>43609</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2363,7 +2363,7 @@
         <v>43619</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2425,7 +2425,7 @@
         <v>43619</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2487,7 +2487,7 @@
         <v>43649</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2544,7 +2544,7 @@
         <v>43658</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2601,7 +2601,7 @@
         <v>43684</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2658,7 +2658,7 @@
         <v>43724</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2715,7 +2715,7 @@
         <v>43731</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2777,7 +2777,7 @@
         <v>43731</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2839,7 +2839,7 @@
         <v>43731</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2901,7 +2901,7 @@
         <v>43740</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2958,7 +2958,7 @@
         <v>43798</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3015,7 +3015,7 @@
         <v>43803</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3072,7 +3072,7 @@
         <v>43915</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3129,7 +3129,7 @@
         <v>43924</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3191,7 +3191,7 @@
         <v>43924</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3253,7 +3253,7 @@
         <v>43956</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3310,7 +3310,7 @@
         <v>43956</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3367,7 +3367,7 @@
         <v>43993</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3424,7 +3424,7 @@
         <v>44000</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3486,7 +3486,7 @@
         <v>44104</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3543,7 +3543,7 @@
         <v>44148</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3600,7 +3600,7 @@
         <v>44183</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3662,7 +3662,7 @@
         <v>44316</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3719,7 +3719,7 @@
         <v>44332</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3776,7 +3776,7 @@
         <v>44403</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3833,7 +3833,7 @@
         <v>44434</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3890,7 +3890,7 @@
         <v>44462</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3947,7 +3947,7 @@
         <v>44473</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4004,7 +4004,7 @@
         <v>44523</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4061,7 +4061,7 @@
         <v>44540</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4118,7 +4118,7 @@
         <v>44550</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4180,7 +4180,7 @@
         <v>44558</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4242,7 +4242,7 @@
         <v>44602</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4304,7 +4304,7 @@
         <v>44602</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4366,7 +4366,7 @@
         <v>44602</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4428,7 +4428,7 @@
         <v>44610</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4485,7 +4485,7 @@
         <v>44616</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4542,7 +4542,7 @@
         <v>44630</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4599,7 +4599,7 @@
         <v>44635</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4656,7 +4656,7 @@
         <v>44638</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4713,7 +4713,7 @@
         <v>44713</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4775,7 +4775,7 @@
         <v>44713</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4837,7 +4837,7 @@
         <v>44720</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4894,7 +4894,7 @@
         <v>44726</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4951,7 +4951,7 @@
         <v>44730</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5008,7 +5008,7 @@
         <v>44834</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5070,7 +5070,7 @@
         <v>44840</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5127,7 +5127,7 @@
         <v>44867</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5189,7 +5189,7 @@
         <v>44872</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5246,7 +5246,7 @@
         <v>44872</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5303,7 +5303,7 @@
         <v>44875</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5365,7 +5365,7 @@
         <v>44875</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5427,7 +5427,7 @@
         <v>44881</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5489,7 +5489,7 @@
         <v>44883</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5551,7 +5551,7 @@
         <v>44883</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5613,7 +5613,7 @@
         <v>44889</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5675,7 +5675,7 @@
         <v>44973</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5732,7 +5732,7 @@
         <v>44987</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5794,7 +5794,7 @@
         <v>45020</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5856,7 +5856,7 @@
         <v>45034</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5918,7 +5918,7 @@
         <v>45036</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5975,7 +5975,7 @@
         <v>45044</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6037,7 +6037,7 @@
         <v>45044</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6099,7 +6099,7 @@
         <v>45050</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6161,7 +6161,7 @@
         <v>45050</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6223,7 +6223,7 @@
         <v>45050</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6285,7 +6285,7 @@
         <v>45054</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6342,7 +6342,7 @@
         <v>45069</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6399,7 +6399,7 @@
         <v>45084</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6456,7 +6456,7 @@
         <v>45167</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6513,7 +6513,7 @@
         <v>45167</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>

--- a/Översikt NYKVARN.xlsx
+++ b/Översikt NYKVARN.xlsx
@@ -572,7 +572,7 @@
         <v>44628</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>44637</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>43438</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -846,7 +846,7 @@
         <v>44862</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -938,7 +938,7 @@
         <v>44602</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1029,7 +1029,7 @@
         <v>45020</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1120,7 +1120,7 @@
         <v>43906</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1205,7 +1205,7 @@
         <v>44610</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1290,7 +1290,7 @@
         <v>44617</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1375,7 +1375,7 @@
         <v>44699</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1465,7 +1465,7 @@
         <v>45050</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1555,7 +1555,7 @@
         <v>43409</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1617,7 +1617,7 @@
         <v>43409</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1679,7 +1679,7 @@
         <v>43413</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1736,7 +1736,7 @@
         <v>43419</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1793,7 +1793,7 @@
         <v>43419</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1850,7 +1850,7 @@
         <v>43440</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1907,7 +1907,7 @@
         <v>43441</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1964,7 +1964,7 @@
         <v>43441</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2021,7 +2021,7 @@
         <v>43443</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2078,7 +2078,7 @@
         <v>43479</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2135,7 +2135,7 @@
         <v>43522</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2192,7 +2192,7 @@
         <v>43534</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2249,7 +2249,7 @@
         <v>43565</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         <v>43609</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2363,7 +2363,7 @@
         <v>43619</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2425,7 +2425,7 @@
         <v>43619</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2487,7 +2487,7 @@
         <v>43649</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2544,7 +2544,7 @@
         <v>43658</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2601,7 +2601,7 @@
         <v>43684</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2658,7 +2658,7 @@
         <v>43724</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2715,7 +2715,7 @@
         <v>43731</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2777,7 +2777,7 @@
         <v>43731</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2839,7 +2839,7 @@
         <v>43731</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2901,7 +2901,7 @@
         <v>43740</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2958,7 +2958,7 @@
         <v>43798</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3015,7 +3015,7 @@
         <v>43803</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3072,7 +3072,7 @@
         <v>43915</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3129,7 +3129,7 @@
         <v>43924</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3191,7 +3191,7 @@
         <v>43924</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3253,7 +3253,7 @@
         <v>43956</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3310,7 +3310,7 @@
         <v>43956</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3367,7 +3367,7 @@
         <v>43993</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3424,7 +3424,7 @@
         <v>44000</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3486,7 +3486,7 @@
         <v>44104</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3543,7 +3543,7 @@
         <v>44148</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3600,7 +3600,7 @@
         <v>44183</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3662,7 +3662,7 @@
         <v>44316</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3719,7 +3719,7 @@
         <v>44332</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3776,7 +3776,7 @@
         <v>44403</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3833,7 +3833,7 @@
         <v>44434</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3890,7 +3890,7 @@
         <v>44462</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3947,7 +3947,7 @@
         <v>44473</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4004,7 +4004,7 @@
         <v>44523</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4061,7 +4061,7 @@
         <v>44540</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4118,7 +4118,7 @@
         <v>44550</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4180,7 +4180,7 @@
         <v>44558</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4242,7 +4242,7 @@
         <v>44602</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4304,7 +4304,7 @@
         <v>44602</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4366,7 +4366,7 @@
         <v>44602</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4428,7 +4428,7 @@
         <v>44610</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4485,7 +4485,7 @@
         <v>44616</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4542,7 +4542,7 @@
         <v>44630</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4599,7 +4599,7 @@
         <v>44635</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4656,7 +4656,7 @@
         <v>44638</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4713,7 +4713,7 @@
         <v>44713</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4775,7 +4775,7 @@
         <v>44713</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4837,7 +4837,7 @@
         <v>44720</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4894,7 +4894,7 @@
         <v>44726</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4951,7 +4951,7 @@
         <v>44730</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5008,7 +5008,7 @@
         <v>44834</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5070,7 +5070,7 @@
         <v>44840</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5127,7 +5127,7 @@
         <v>44867</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5189,7 +5189,7 @@
         <v>44872</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5246,7 +5246,7 @@
         <v>44872</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5303,7 +5303,7 @@
         <v>44875</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5365,7 +5365,7 @@
         <v>44875</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5427,7 +5427,7 @@
         <v>44881</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5489,7 +5489,7 @@
         <v>44883</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5551,7 +5551,7 @@
         <v>44883</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5613,7 +5613,7 @@
         <v>44889</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5675,7 +5675,7 @@
         <v>44973</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5732,7 +5732,7 @@
         <v>44987</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5794,7 +5794,7 @@
         <v>45020</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5856,7 +5856,7 @@
         <v>45034</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5918,7 +5918,7 @@
         <v>45036</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5975,7 +5975,7 @@
         <v>45044</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6037,7 +6037,7 @@
         <v>45044</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6099,7 +6099,7 @@
         <v>45050</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6161,7 +6161,7 @@
         <v>45050</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6223,7 +6223,7 @@
         <v>45050</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6285,7 +6285,7 @@
         <v>45054</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6342,7 +6342,7 @@
         <v>45069</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6399,7 +6399,7 @@
         <v>45084</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6456,7 +6456,7 @@
         <v>45167</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6513,7 +6513,7 @@
         <v>45167</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>

--- a/Översikt NYKVARN.xlsx
+++ b/Översikt NYKVARN.xlsx
@@ -572,7 +572,7 @@
         <v>44628</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>44637</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>43438</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -846,7 +846,7 @@
         <v>44862</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -938,7 +938,7 @@
         <v>44602</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1029,7 +1029,7 @@
         <v>45020</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1120,7 +1120,7 @@
         <v>43906</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1205,7 +1205,7 @@
         <v>44610</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1290,7 +1290,7 @@
         <v>44617</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1375,7 +1375,7 @@
         <v>44699</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1465,7 +1465,7 @@
         <v>45050</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1555,7 +1555,7 @@
         <v>43409</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1617,7 +1617,7 @@
         <v>43409</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1679,7 +1679,7 @@
         <v>43413</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1736,7 +1736,7 @@
         <v>43419</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1793,7 +1793,7 @@
         <v>43419</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1850,7 +1850,7 @@
         <v>43440</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1907,7 +1907,7 @@
         <v>43441</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1964,7 +1964,7 @@
         <v>43441</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2021,7 +2021,7 @@
         <v>43443</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2078,7 +2078,7 @@
         <v>43479</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2135,7 +2135,7 @@
         <v>43522</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2192,7 +2192,7 @@
         <v>43534</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2249,7 +2249,7 @@
         <v>43565</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         <v>43609</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2363,7 +2363,7 @@
         <v>43619</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2425,7 +2425,7 @@
         <v>43619</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2487,7 +2487,7 @@
         <v>43649</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2544,7 +2544,7 @@
         <v>43658</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2601,7 +2601,7 @@
         <v>43684</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2658,7 +2658,7 @@
         <v>43724</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2715,7 +2715,7 @@
         <v>43731</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2777,7 +2777,7 @@
         <v>43731</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2839,7 +2839,7 @@
         <v>43731</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2901,7 +2901,7 @@
         <v>43740</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2958,7 +2958,7 @@
         <v>43798</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3015,7 +3015,7 @@
         <v>43803</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3072,7 +3072,7 @@
         <v>43915</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3129,7 +3129,7 @@
         <v>43924</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3191,7 +3191,7 @@
         <v>43924</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3253,7 +3253,7 @@
         <v>43956</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3310,7 +3310,7 @@
         <v>43956</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3367,7 +3367,7 @@
         <v>43993</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3424,7 +3424,7 @@
         <v>44000</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3486,7 +3486,7 @@
         <v>44104</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3543,7 +3543,7 @@
         <v>44148</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3600,7 +3600,7 @@
         <v>44183</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3662,7 +3662,7 @@
         <v>44316</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3719,7 +3719,7 @@
         <v>44332</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3776,7 +3776,7 @@
         <v>44403</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3833,7 +3833,7 @@
         <v>44434</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3890,7 +3890,7 @@
         <v>44462</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3947,7 +3947,7 @@
         <v>44473</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4004,7 +4004,7 @@
         <v>44523</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4061,7 +4061,7 @@
         <v>44540</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4118,7 +4118,7 @@
         <v>44550</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4180,7 +4180,7 @@
         <v>44558</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4242,7 +4242,7 @@
         <v>44602</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4304,7 +4304,7 @@
         <v>44602</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4366,7 +4366,7 @@
         <v>44602</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4428,7 +4428,7 @@
         <v>44610</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4485,7 +4485,7 @@
         <v>44616</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4542,7 +4542,7 @@
         <v>44630</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4599,7 +4599,7 @@
         <v>44635</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4656,7 +4656,7 @@
         <v>44638</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4713,7 +4713,7 @@
         <v>44713</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4775,7 +4775,7 @@
         <v>44713</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4837,7 +4837,7 @@
         <v>44720</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4894,7 +4894,7 @@
         <v>44726</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4951,7 +4951,7 @@
         <v>44730</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5008,7 +5008,7 @@
         <v>44834</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5070,7 +5070,7 @@
         <v>44840</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5127,7 +5127,7 @@
         <v>44867</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5189,7 +5189,7 @@
         <v>44872</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5246,7 +5246,7 @@
         <v>44872</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5303,7 +5303,7 @@
         <v>44875</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5365,7 +5365,7 @@
         <v>44875</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5427,7 +5427,7 @@
         <v>44881</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5489,7 +5489,7 @@
         <v>44883</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5551,7 +5551,7 @@
         <v>44883</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5613,7 +5613,7 @@
         <v>44889</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5675,7 +5675,7 @@
         <v>44973</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5732,7 +5732,7 @@
         <v>44987</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5794,7 +5794,7 @@
         <v>45020</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5856,7 +5856,7 @@
         <v>45034</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5918,7 +5918,7 @@
         <v>45036</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5975,7 +5975,7 @@
         <v>45044</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6037,7 +6037,7 @@
         <v>45044</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6099,7 +6099,7 @@
         <v>45050</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6161,7 +6161,7 @@
         <v>45050</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6223,7 +6223,7 @@
         <v>45050</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6285,7 +6285,7 @@
         <v>45054</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6342,7 +6342,7 @@
         <v>45069</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6399,7 +6399,7 @@
         <v>45084</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6456,7 +6456,7 @@
         <v>45167</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6513,7 +6513,7 @@
         <v>45167</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>

--- a/Översikt NYKVARN.xlsx
+++ b/Översikt NYKVARN.xlsx
@@ -572,7 +572,7 @@
         <v>44628</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>44637</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>43438</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -846,7 +846,7 @@
         <v>44862</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -938,7 +938,7 @@
         <v>44602</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1029,7 +1029,7 @@
         <v>45020</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1120,7 +1120,7 @@
         <v>43906</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1205,7 +1205,7 @@
         <v>44610</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1290,7 +1290,7 @@
         <v>44617</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1375,7 +1375,7 @@
         <v>44699</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1465,7 +1465,7 @@
         <v>45050</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1555,7 +1555,7 @@
         <v>43409</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1617,7 +1617,7 @@
         <v>43409</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1679,7 +1679,7 @@
         <v>43413</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1736,7 +1736,7 @@
         <v>43419</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1793,7 +1793,7 @@
         <v>43419</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1850,7 +1850,7 @@
         <v>43440</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1907,7 +1907,7 @@
         <v>43441</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1964,7 +1964,7 @@
         <v>43441</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2021,7 +2021,7 @@
         <v>43443</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2078,7 +2078,7 @@
         <v>43479</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2135,7 +2135,7 @@
         <v>43522</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2192,7 +2192,7 @@
         <v>43534</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2249,7 +2249,7 @@
         <v>43565</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         <v>43609</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2363,7 +2363,7 @@
         <v>43619</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2425,7 +2425,7 @@
         <v>43619</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2487,7 +2487,7 @@
         <v>43649</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2544,7 +2544,7 @@
         <v>43658</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2601,7 +2601,7 @@
         <v>43684</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2658,7 +2658,7 @@
         <v>43724</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2715,7 +2715,7 @@
         <v>43731</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2777,7 +2777,7 @@
         <v>43731</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2839,7 +2839,7 @@
         <v>43731</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2901,7 +2901,7 @@
         <v>43740</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2958,7 +2958,7 @@
         <v>43798</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3015,7 +3015,7 @@
         <v>43803</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3072,7 +3072,7 @@
         <v>43915</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3129,7 +3129,7 @@
         <v>43924</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3191,7 +3191,7 @@
         <v>43924</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3253,7 +3253,7 @@
         <v>43956</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3310,7 +3310,7 @@
         <v>43956</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3367,7 +3367,7 @@
         <v>43993</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3424,7 +3424,7 @@
         <v>44000</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3486,7 +3486,7 @@
         <v>44104</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3543,7 +3543,7 @@
         <v>44148</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3600,7 +3600,7 @@
         <v>44183</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3662,7 +3662,7 @@
         <v>44316</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3719,7 +3719,7 @@
         <v>44332</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3776,7 +3776,7 @@
         <v>44403</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3833,7 +3833,7 @@
         <v>44434</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3890,7 +3890,7 @@
         <v>44462</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3947,7 +3947,7 @@
         <v>44473</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4004,7 +4004,7 @@
         <v>44523</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4061,7 +4061,7 @@
         <v>44540</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4118,7 +4118,7 @@
         <v>44550</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4180,7 +4180,7 @@
         <v>44558</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4242,7 +4242,7 @@
         <v>44602</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4304,7 +4304,7 @@
         <v>44602</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4366,7 +4366,7 @@
         <v>44602</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4428,7 +4428,7 @@
         <v>44610</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4485,7 +4485,7 @@
         <v>44616</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4542,7 +4542,7 @@
         <v>44630</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4599,7 +4599,7 @@
         <v>44635</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4656,7 +4656,7 @@
         <v>44638</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4713,7 +4713,7 @@
         <v>44713</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4775,7 +4775,7 @@
         <v>44713</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4837,7 +4837,7 @@
         <v>44720</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4894,7 +4894,7 @@
         <v>44726</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4951,7 +4951,7 @@
         <v>44730</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5008,7 +5008,7 @@
         <v>44834</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5070,7 +5070,7 @@
         <v>44840</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5127,7 +5127,7 @@
         <v>44867</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5189,7 +5189,7 @@
         <v>44872</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5246,7 +5246,7 @@
         <v>44872</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5303,7 +5303,7 @@
         <v>44875</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5365,7 +5365,7 @@
         <v>44875</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5427,7 +5427,7 @@
         <v>44881</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5489,7 +5489,7 @@
         <v>44883</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5551,7 +5551,7 @@
         <v>44883</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5613,7 +5613,7 @@
         <v>44889</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5675,7 +5675,7 @@
         <v>44973</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5732,7 +5732,7 @@
         <v>44987</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5794,7 +5794,7 @@
         <v>45020</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5856,7 +5856,7 @@
         <v>45034</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5918,7 +5918,7 @@
         <v>45036</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5975,7 +5975,7 @@
         <v>45044</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6037,7 +6037,7 @@
         <v>45044</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6099,7 +6099,7 @@
         <v>45050</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6161,7 +6161,7 @@
         <v>45050</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6223,7 +6223,7 @@
         <v>45050</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6285,7 +6285,7 @@
         <v>45054</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6342,7 +6342,7 @@
         <v>45069</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6399,7 +6399,7 @@
         <v>45084</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6456,7 +6456,7 @@
         <v>45167</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6513,7 +6513,7 @@
         <v>45167</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>

--- a/Översikt NYKVARN.xlsx
+++ b/Översikt NYKVARN.xlsx
@@ -572,7 +572,7 @@
         <v>44628</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>44637</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>43438</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -846,7 +846,7 @@
         <v>44862</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -938,7 +938,7 @@
         <v>44602</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1029,7 +1029,7 @@
         <v>45020</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1120,7 +1120,7 @@
         <v>43906</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1205,7 +1205,7 @@
         <v>44610</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1290,7 +1290,7 @@
         <v>44617</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1375,7 +1375,7 @@
         <v>44699</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1465,7 +1465,7 @@
         <v>45050</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1555,7 +1555,7 @@
         <v>43409</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1617,7 +1617,7 @@
         <v>43409</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1679,7 +1679,7 @@
         <v>43413</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1736,7 +1736,7 @@
         <v>43419</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1793,7 +1793,7 @@
         <v>43419</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1850,7 +1850,7 @@
         <v>43440</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1907,7 +1907,7 @@
         <v>43441</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1964,7 +1964,7 @@
         <v>43441</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2021,7 +2021,7 @@
         <v>43443</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2078,7 +2078,7 @@
         <v>43479</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2135,7 +2135,7 @@
         <v>43522</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2192,7 +2192,7 @@
         <v>43534</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2249,7 +2249,7 @@
         <v>43565</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         <v>43609</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2363,7 +2363,7 @@
         <v>43619</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2425,7 +2425,7 @@
         <v>43619</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2487,7 +2487,7 @@
         <v>43649</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2544,7 +2544,7 @@
         <v>43658</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2601,7 +2601,7 @@
         <v>43684</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2658,7 +2658,7 @@
         <v>43724</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2715,7 +2715,7 @@
         <v>43731</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2777,7 +2777,7 @@
         <v>43731</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2839,7 +2839,7 @@
         <v>43731</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2901,7 +2901,7 @@
         <v>43740</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2958,7 +2958,7 @@
         <v>43798</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3015,7 +3015,7 @@
         <v>43803</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3072,7 +3072,7 @@
         <v>43915</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3129,7 +3129,7 @@
         <v>43924</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3191,7 +3191,7 @@
         <v>43924</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3253,7 +3253,7 @@
         <v>43956</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3310,7 +3310,7 @@
         <v>43956</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3367,7 +3367,7 @@
         <v>43993</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3424,7 +3424,7 @@
         <v>44000</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3486,7 +3486,7 @@
         <v>44104</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3543,7 +3543,7 @@
         <v>44148</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3600,7 +3600,7 @@
         <v>44183</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3662,7 +3662,7 @@
         <v>44316</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3719,7 +3719,7 @@
         <v>44332</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3776,7 +3776,7 @@
         <v>44403</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3833,7 +3833,7 @@
         <v>44434</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3890,7 +3890,7 @@
         <v>44462</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3947,7 +3947,7 @@
         <v>44473</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4004,7 +4004,7 @@
         <v>44523</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4061,7 +4061,7 @@
         <v>44540</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4118,7 +4118,7 @@
         <v>44550</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4180,7 +4180,7 @@
         <v>44558</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4242,7 +4242,7 @@
         <v>44602</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4304,7 +4304,7 @@
         <v>44602</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4366,7 +4366,7 @@
         <v>44602</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4428,7 +4428,7 @@
         <v>44610</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4485,7 +4485,7 @@
         <v>44616</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4542,7 +4542,7 @@
         <v>44630</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4599,7 +4599,7 @@
         <v>44635</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4656,7 +4656,7 @@
         <v>44638</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4713,7 +4713,7 @@
         <v>44713</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4775,7 +4775,7 @@
         <v>44713</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4837,7 +4837,7 @@
         <v>44720</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4894,7 +4894,7 @@
         <v>44726</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4951,7 +4951,7 @@
         <v>44730</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5008,7 +5008,7 @@
         <v>44834</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5070,7 +5070,7 @@
         <v>44840</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5127,7 +5127,7 @@
         <v>44867</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5189,7 +5189,7 @@
         <v>44872</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5246,7 +5246,7 @@
         <v>44872</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5303,7 +5303,7 @@
         <v>44875</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5365,7 +5365,7 @@
         <v>44875</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5427,7 +5427,7 @@
         <v>44881</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5489,7 +5489,7 @@
         <v>44883</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5551,7 +5551,7 @@
         <v>44883</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5613,7 +5613,7 @@
         <v>44889</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5675,7 +5675,7 @@
         <v>44973</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5732,7 +5732,7 @@
         <v>44987</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5794,7 +5794,7 @@
         <v>45020</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5856,7 +5856,7 @@
         <v>45034</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5918,7 +5918,7 @@
         <v>45036</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5975,7 +5975,7 @@
         <v>45044</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6037,7 +6037,7 @@
         <v>45044</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6099,7 +6099,7 @@
         <v>45050</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6161,7 +6161,7 @@
         <v>45050</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6223,7 +6223,7 @@
         <v>45050</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6285,7 +6285,7 @@
         <v>45054</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6342,7 +6342,7 @@
         <v>45069</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6399,7 +6399,7 @@
         <v>45084</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6456,7 +6456,7 @@
         <v>45167</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6513,7 +6513,7 @@
         <v>45167</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>

--- a/Översikt NYKVARN.xlsx
+++ b/Översikt NYKVARN.xlsx
@@ -572,7 +572,7 @@
         <v>44628</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>44637</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>43438</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -846,7 +846,7 @@
         <v>44862</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -938,7 +938,7 @@
         <v>44602</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1029,7 +1029,7 @@
         <v>45020</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1120,7 +1120,7 @@
         <v>43906</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1205,7 +1205,7 @@
         <v>44610</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1290,7 +1290,7 @@
         <v>44617</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1375,7 +1375,7 @@
         <v>44699</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1465,7 +1465,7 @@
         <v>45050</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1555,7 +1555,7 @@
         <v>43409</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1617,7 +1617,7 @@
         <v>43409</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1679,7 +1679,7 @@
         <v>43413</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1736,7 +1736,7 @@
         <v>43419</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1793,7 +1793,7 @@
         <v>43419</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1850,7 +1850,7 @@
         <v>43440</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1907,7 +1907,7 @@
         <v>43441</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1964,7 +1964,7 @@
         <v>43441</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2021,7 +2021,7 @@
         <v>43443</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2078,7 +2078,7 @@
         <v>43479</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2135,7 +2135,7 @@
         <v>43522</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2192,7 +2192,7 @@
         <v>43534</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2249,7 +2249,7 @@
         <v>43565</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         <v>43609</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2363,7 +2363,7 @@
         <v>43619</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2425,7 +2425,7 @@
         <v>43619</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2487,7 +2487,7 @@
         <v>43649</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2544,7 +2544,7 @@
         <v>43658</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2601,7 +2601,7 @@
         <v>43684</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2658,7 +2658,7 @@
         <v>43724</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2715,7 +2715,7 @@
         <v>43731</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2777,7 +2777,7 @@
         <v>43731</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2839,7 +2839,7 @@
         <v>43731</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2901,7 +2901,7 @@
         <v>43740</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2958,7 +2958,7 @@
         <v>43798</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3015,7 +3015,7 @@
         <v>43803</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3072,7 +3072,7 @@
         <v>43915</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3129,7 +3129,7 @@
         <v>43924</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3191,7 +3191,7 @@
         <v>43924</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3253,7 +3253,7 @@
         <v>43956</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3310,7 +3310,7 @@
         <v>43956</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3367,7 +3367,7 @@
         <v>43993</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3424,7 +3424,7 @@
         <v>44000</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3486,7 +3486,7 @@
         <v>44104</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3543,7 +3543,7 @@
         <v>44148</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3600,7 +3600,7 @@
         <v>44183</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3662,7 +3662,7 @@
         <v>44316</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3719,7 +3719,7 @@
         <v>44332</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3776,7 +3776,7 @@
         <v>44403</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3833,7 +3833,7 @@
         <v>44434</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3890,7 +3890,7 @@
         <v>44462</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3947,7 +3947,7 @@
         <v>44473</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4004,7 +4004,7 @@
         <v>44523</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4061,7 +4061,7 @@
         <v>44540</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4118,7 +4118,7 @@
         <v>44550</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4180,7 +4180,7 @@
         <v>44558</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4242,7 +4242,7 @@
         <v>44602</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4304,7 +4304,7 @@
         <v>44602</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4366,7 +4366,7 @@
         <v>44602</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4428,7 +4428,7 @@
         <v>44610</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4485,7 +4485,7 @@
         <v>44616</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4542,7 +4542,7 @@
         <v>44630</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4599,7 +4599,7 @@
         <v>44635</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4656,7 +4656,7 @@
         <v>44638</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4713,7 +4713,7 @@
         <v>44713</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4775,7 +4775,7 @@
         <v>44713</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4837,7 +4837,7 @@
         <v>44720</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4894,7 +4894,7 @@
         <v>44726</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4951,7 +4951,7 @@
         <v>44730</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5008,7 +5008,7 @@
         <v>44834</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5070,7 +5070,7 @@
         <v>44840</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5127,7 +5127,7 @@
         <v>44867</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5189,7 +5189,7 @@
         <v>44872</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5246,7 +5246,7 @@
         <v>44872</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5303,7 +5303,7 @@
         <v>44875</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5365,7 +5365,7 @@
         <v>44875</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5427,7 +5427,7 @@
         <v>44881</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5489,7 +5489,7 @@
         <v>44883</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5551,7 +5551,7 @@
         <v>44883</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5613,7 +5613,7 @@
         <v>44889</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5675,7 +5675,7 @@
         <v>44973</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5732,7 +5732,7 @@
         <v>44987</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5794,7 +5794,7 @@
         <v>45020</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5856,7 +5856,7 @@
         <v>45034</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5918,7 +5918,7 @@
         <v>45036</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5975,7 +5975,7 @@
         <v>45044</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6037,7 +6037,7 @@
         <v>45044</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6099,7 +6099,7 @@
         <v>45050</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6161,7 +6161,7 @@
         <v>45050</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6223,7 +6223,7 @@
         <v>45050</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6285,7 +6285,7 @@
         <v>45054</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6342,7 +6342,7 @@
         <v>45069</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6399,7 +6399,7 @@
         <v>45084</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6456,7 +6456,7 @@
         <v>45167</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6513,7 +6513,7 @@
         <v>45167</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>

--- a/Översikt NYKVARN.xlsx
+++ b/Översikt NYKVARN.xlsx
@@ -572,7 +572,7 @@
         <v>44628</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>44637</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>43438</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -846,7 +846,7 @@
         <v>44862</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -938,7 +938,7 @@
         <v>44602</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1029,7 +1029,7 @@
         <v>45020</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1120,7 +1120,7 @@
         <v>43906</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1205,7 +1205,7 @@
         <v>44610</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1290,7 +1290,7 @@
         <v>44617</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1375,7 +1375,7 @@
         <v>44699</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1465,7 +1465,7 @@
         <v>45050</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1555,7 +1555,7 @@
         <v>43409</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1617,7 +1617,7 @@
         <v>43409</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1679,7 +1679,7 @@
         <v>43413</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1736,7 +1736,7 @@
         <v>43419</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1793,7 +1793,7 @@
         <v>43419</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1850,7 +1850,7 @@
         <v>43440</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1907,7 +1907,7 @@
         <v>43441</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1964,7 +1964,7 @@
         <v>43441</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2021,7 +2021,7 @@
         <v>43443</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2078,7 +2078,7 @@
         <v>43479</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2135,7 +2135,7 @@
         <v>43522</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2192,7 +2192,7 @@
         <v>43534</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2249,7 +2249,7 @@
         <v>43565</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         <v>43609</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2363,7 +2363,7 @@
         <v>43619</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2425,7 +2425,7 @@
         <v>43619</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2487,7 +2487,7 @@
         <v>43649</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2544,7 +2544,7 @@
         <v>43658</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2601,7 +2601,7 @@
         <v>43684</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2658,7 +2658,7 @@
         <v>43724</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2715,7 +2715,7 @@
         <v>43731</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2777,7 +2777,7 @@
         <v>43731</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2839,7 +2839,7 @@
         <v>43731</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2901,7 +2901,7 @@
         <v>43740</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2958,7 +2958,7 @@
         <v>43798</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3015,7 +3015,7 @@
         <v>43803</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3072,7 +3072,7 @@
         <v>43915</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3129,7 +3129,7 @@
         <v>43924</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3191,7 +3191,7 @@
         <v>43924</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3253,7 +3253,7 @@
         <v>43956</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3310,7 +3310,7 @@
         <v>43956</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3367,7 +3367,7 @@
         <v>43993</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3424,7 +3424,7 @@
         <v>44000</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3486,7 +3486,7 @@
         <v>44104</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3543,7 +3543,7 @@
         <v>44148</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3600,7 +3600,7 @@
         <v>44183</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3662,7 +3662,7 @@
         <v>44316</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3719,7 +3719,7 @@
         <v>44332</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3776,7 +3776,7 @@
         <v>44403</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3833,7 +3833,7 @@
         <v>44434</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3890,7 +3890,7 @@
         <v>44462</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3947,7 +3947,7 @@
         <v>44473</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4004,7 +4004,7 @@
         <v>44523</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4061,7 +4061,7 @@
         <v>44540</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4118,7 +4118,7 @@
         <v>44550</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4180,7 +4180,7 @@
         <v>44558</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4242,7 +4242,7 @@
         <v>44602</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4304,7 +4304,7 @@
         <v>44602</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4366,7 +4366,7 @@
         <v>44602</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4428,7 +4428,7 @@
         <v>44610</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4485,7 +4485,7 @@
         <v>44616</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4542,7 +4542,7 @@
         <v>44630</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4599,7 +4599,7 @@
         <v>44635</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4656,7 +4656,7 @@
         <v>44638</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4713,7 +4713,7 @@
         <v>44713</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4775,7 +4775,7 @@
         <v>44713</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4837,7 +4837,7 @@
         <v>44720</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4894,7 +4894,7 @@
         <v>44726</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4951,7 +4951,7 @@
         <v>44730</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5008,7 +5008,7 @@
         <v>44834</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5070,7 +5070,7 @@
         <v>44840</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5127,7 +5127,7 @@
         <v>44867</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5189,7 +5189,7 @@
         <v>44872</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5246,7 +5246,7 @@
         <v>44872</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5303,7 +5303,7 @@
         <v>44875</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5365,7 +5365,7 @@
         <v>44875</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5427,7 +5427,7 @@
         <v>44881</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5489,7 +5489,7 @@
         <v>44883</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5551,7 +5551,7 @@
         <v>44883</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5613,7 +5613,7 @@
         <v>44889</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5675,7 +5675,7 @@
         <v>44973</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5732,7 +5732,7 @@
         <v>44987</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5794,7 +5794,7 @@
         <v>45020</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5856,7 +5856,7 @@
         <v>45034</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5918,7 +5918,7 @@
         <v>45036</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5975,7 +5975,7 @@
         <v>45044</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6037,7 +6037,7 @@
         <v>45044</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6099,7 +6099,7 @@
         <v>45050</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6161,7 +6161,7 @@
         <v>45050</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6223,7 +6223,7 @@
         <v>45050</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6285,7 +6285,7 @@
         <v>45054</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6342,7 +6342,7 @@
         <v>45069</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6399,7 +6399,7 @@
         <v>45084</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6456,7 +6456,7 @@
         <v>45167</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6513,7 +6513,7 @@
         <v>45167</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>

--- a/Översikt NYKVARN.xlsx
+++ b/Översikt NYKVARN.xlsx
@@ -572,7 +572,7 @@
         <v>44628</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>44637</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>43438</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -846,7 +846,7 @@
         <v>44862</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -938,7 +938,7 @@
         <v>44602</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1029,7 +1029,7 @@
         <v>45020</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1120,7 +1120,7 @@
         <v>43906</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1205,7 +1205,7 @@
         <v>44610</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1290,7 +1290,7 @@
         <v>44617</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1375,7 +1375,7 @@
         <v>44699</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1465,7 +1465,7 @@
         <v>45050</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1555,7 +1555,7 @@
         <v>43409</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1617,7 +1617,7 @@
         <v>43409</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1679,7 +1679,7 @@
         <v>43413</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1736,7 +1736,7 @@
         <v>43419</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1793,7 +1793,7 @@
         <v>43419</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1850,7 +1850,7 @@
         <v>43440</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1907,7 +1907,7 @@
         <v>43441</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1964,7 +1964,7 @@
         <v>43441</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2021,7 +2021,7 @@
         <v>43443</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2078,7 +2078,7 @@
         <v>43479</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2135,7 +2135,7 @@
         <v>43522</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2192,7 +2192,7 @@
         <v>43534</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2249,7 +2249,7 @@
         <v>43565</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         <v>43609</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2363,7 +2363,7 @@
         <v>43619</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2425,7 +2425,7 @@
         <v>43619</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2487,7 +2487,7 @@
         <v>43649</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2544,7 +2544,7 @@
         <v>43658</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2601,7 +2601,7 @@
         <v>43684</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2658,7 +2658,7 @@
         <v>43724</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2715,7 +2715,7 @@
         <v>43731</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2777,7 +2777,7 @@
         <v>43731</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2839,7 +2839,7 @@
         <v>43731</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2901,7 +2901,7 @@
         <v>43740</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2958,7 +2958,7 @@
         <v>43798</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3015,7 +3015,7 @@
         <v>43803</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3072,7 +3072,7 @@
         <v>43915</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3129,7 +3129,7 @@
         <v>43924</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3191,7 +3191,7 @@
         <v>43924</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3253,7 +3253,7 @@
         <v>43956</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3310,7 +3310,7 @@
         <v>43956</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3367,7 +3367,7 @@
         <v>43993</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3424,7 +3424,7 @@
         <v>44000</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3486,7 +3486,7 @@
         <v>44104</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3543,7 +3543,7 @@
         <v>44148</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3600,7 +3600,7 @@
         <v>44183</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3662,7 +3662,7 @@
         <v>44316</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3719,7 +3719,7 @@
         <v>44332</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3776,7 +3776,7 @@
         <v>44403</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3833,7 +3833,7 @@
         <v>44434</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3890,7 +3890,7 @@
         <v>44462</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3947,7 +3947,7 @@
         <v>44473</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4004,7 +4004,7 @@
         <v>44523</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4061,7 +4061,7 @@
         <v>44540</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4118,7 +4118,7 @@
         <v>44550</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4180,7 +4180,7 @@
         <v>44558</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4242,7 +4242,7 @@
         <v>44602</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4304,7 +4304,7 @@
         <v>44602</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4366,7 +4366,7 @@
         <v>44602</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4428,7 +4428,7 @@
         <v>44610</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4485,7 +4485,7 @@
         <v>44616</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4542,7 +4542,7 @@
         <v>44630</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4599,7 +4599,7 @@
         <v>44635</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4656,7 +4656,7 @@
         <v>44638</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4713,7 +4713,7 @@
         <v>44713</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4775,7 +4775,7 @@
         <v>44713</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4837,7 +4837,7 @@
         <v>44720</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4894,7 +4894,7 @@
         <v>44726</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4951,7 +4951,7 @@
         <v>44730</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5008,7 +5008,7 @@
         <v>44834</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5070,7 +5070,7 @@
         <v>44840</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5127,7 +5127,7 @@
         <v>44867</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5189,7 +5189,7 @@
         <v>44872</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5246,7 +5246,7 @@
         <v>44872</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5303,7 +5303,7 @@
         <v>44875</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5365,7 +5365,7 @@
         <v>44875</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5427,7 +5427,7 @@
         <v>44881</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5489,7 +5489,7 @@
         <v>44883</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5551,7 +5551,7 @@
         <v>44883</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5613,7 +5613,7 @@
         <v>44889</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5675,7 +5675,7 @@
         <v>44973</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5732,7 +5732,7 @@
         <v>44987</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5794,7 +5794,7 @@
         <v>45020</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5856,7 +5856,7 @@
         <v>45034</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5918,7 +5918,7 @@
         <v>45036</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5975,7 +5975,7 @@
         <v>45044</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6037,7 +6037,7 @@
         <v>45044</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6099,7 +6099,7 @@
         <v>45050</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6161,7 +6161,7 @@
         <v>45050</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6223,7 +6223,7 @@
         <v>45050</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6285,7 +6285,7 @@
         <v>45054</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6342,7 +6342,7 @@
         <v>45069</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6399,7 +6399,7 @@
         <v>45084</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6456,7 +6456,7 @@
         <v>45167</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6513,7 +6513,7 @@
         <v>45167</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>

--- a/Översikt NYKVARN.xlsx
+++ b/Översikt NYKVARN.xlsx
@@ -572,7 +572,7 @@
         <v>44628</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -635,27 +635,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NYKVARN/artfynd/A 11053-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NYKVARN/artfynd/A 11053-2022.xlsx", "A 11053-2022")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NYKVARN/kartor/A 11053-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NYKVARN/kartor/A 11053-2022.png", "A 11053-2022")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NYKVARN/klagomål/A 11053-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NYKVARN/klagomål/A 11053-2022.docx", "A 11053-2022")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NYKVARN/klagomålsmail/A 11053-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NYKVARN/klagomålsmail/A 11053-2022.docx", "A 11053-2022")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NYKVARN/tillsyn/A 11053-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NYKVARN/tillsyn/A 11053-2022.docx", "A 11053-2022")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NYKVARN/tillsynsmail/A 11053-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NYKVARN/tillsynsmail/A 11053-2022.docx", "A 11053-2022")</f>
         <v/>
       </c>
     </row>
@@ -669,7 +669,7 @@
         <v>44637</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -724,27 +724,27 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NYKVARN/artfynd/A 12403-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NYKVARN/artfynd/A 12403-2022.xlsx", "A 12403-2022")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NYKVARN/kartor/A 12403-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NYKVARN/kartor/A 12403-2022.png", "A 12403-2022")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NYKVARN/klagomål/A 12403-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NYKVARN/klagomål/A 12403-2022.docx", "A 12403-2022")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NYKVARN/klagomålsmail/A 12403-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NYKVARN/klagomålsmail/A 12403-2022.docx", "A 12403-2022")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NYKVARN/tillsyn/A 12403-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NYKVARN/tillsyn/A 12403-2022.docx", "A 12403-2022")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NYKVARN/tillsynsmail/A 12403-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NYKVARN/tillsynsmail/A 12403-2022.docx", "A 12403-2022")</f>
         <v/>
       </c>
     </row>
@@ -758,7 +758,7 @@
         <v>43438</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -812,27 +812,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NYKVARN/artfynd/A 67155-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NYKVARN/artfynd/A 67155-2018.xlsx", "A 67155-2018")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NYKVARN/kartor/A 67155-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NYKVARN/kartor/A 67155-2018.png", "A 67155-2018")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NYKVARN/klagomål/A 67155-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NYKVARN/klagomål/A 67155-2018.docx", "A 67155-2018")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NYKVARN/klagomålsmail/A 67155-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NYKVARN/klagomålsmail/A 67155-2018.docx", "A 67155-2018")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NYKVARN/tillsyn/A 67155-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NYKVARN/tillsyn/A 67155-2018.docx", "A 67155-2018")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NYKVARN/tillsynsmail/A 67155-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NYKVARN/tillsynsmail/A 67155-2018.docx", "A 67155-2018")</f>
         <v/>
       </c>
     </row>
@@ -846,7 +846,7 @@
         <v>44862</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -904,27 +904,27 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NYKVARN/artfynd/A 49680-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NYKVARN/artfynd/A 49680-2022.xlsx", "A 49680-2022")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NYKVARN/kartor/A 49680-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NYKVARN/kartor/A 49680-2022.png", "A 49680-2022")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NYKVARN/klagomål/A 49680-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NYKVARN/klagomål/A 49680-2022.docx", "A 49680-2022")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NYKVARN/klagomålsmail/A 49680-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NYKVARN/klagomålsmail/A 49680-2022.docx", "A 49680-2022")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NYKVARN/tillsyn/A 49680-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NYKVARN/tillsyn/A 49680-2022.docx", "A 49680-2022")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NYKVARN/tillsynsmail/A 49680-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NYKVARN/tillsynsmail/A 49680-2022.docx", "A 49680-2022")</f>
         <v/>
       </c>
     </row>
@@ -938,7 +938,7 @@
         <v>44602</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -995,27 +995,27 @@
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NYKVARN/artfynd/A 6852-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NYKVARN/artfynd/A 6852-2022.xlsx", "A 6852-2022")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NYKVARN/kartor/A 6852-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NYKVARN/kartor/A 6852-2022.png", "A 6852-2022")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NYKVARN/klagomål/A 6852-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NYKVARN/klagomål/A 6852-2022.docx", "A 6852-2022")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NYKVARN/klagomålsmail/A 6852-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NYKVARN/klagomålsmail/A 6852-2022.docx", "A 6852-2022")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NYKVARN/tillsyn/A 6852-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NYKVARN/tillsyn/A 6852-2022.docx", "A 6852-2022")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NYKVARN/tillsynsmail/A 6852-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NYKVARN/tillsynsmail/A 6852-2022.docx", "A 6852-2022")</f>
         <v/>
       </c>
     </row>
@@ -1029,7 +1029,7 @@
         <v>45020</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1086,27 +1086,27 @@
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NYKVARN/artfynd/A 15574-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NYKVARN/artfynd/A 15574-2023.xlsx", "A 15574-2023")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NYKVARN/kartor/A 15574-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NYKVARN/kartor/A 15574-2023.png", "A 15574-2023")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NYKVARN/klagomål/A 15574-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NYKVARN/klagomål/A 15574-2023.docx", "A 15574-2023")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NYKVARN/klagomålsmail/A 15574-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NYKVARN/klagomålsmail/A 15574-2023.docx", "A 15574-2023")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NYKVARN/tillsyn/A 15574-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NYKVARN/tillsyn/A 15574-2023.docx", "A 15574-2023")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NYKVARN/tillsynsmail/A 15574-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NYKVARN/tillsynsmail/A 15574-2023.docx", "A 15574-2023")</f>
         <v/>
       </c>
     </row>
@@ -1120,7 +1120,7 @@
         <v>43906</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1171,27 +1171,27 @@
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NYKVARN/artfynd/A 13922-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NYKVARN/artfynd/A 13922-2020.xlsx", "A 13922-2020")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NYKVARN/kartor/A 13922-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NYKVARN/kartor/A 13922-2020.png", "A 13922-2020")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NYKVARN/klagomål/A 13922-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NYKVARN/klagomål/A 13922-2020.docx", "A 13922-2020")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NYKVARN/klagomålsmail/A 13922-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NYKVARN/klagomålsmail/A 13922-2020.docx", "A 13922-2020")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NYKVARN/tillsyn/A 13922-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NYKVARN/tillsyn/A 13922-2020.docx", "A 13922-2020")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NYKVARN/tillsynsmail/A 13922-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NYKVARN/tillsynsmail/A 13922-2020.docx", "A 13922-2020")</f>
         <v/>
       </c>
     </row>
@@ -1205,7 +1205,7 @@
         <v>44610</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1256,27 +1256,27 @@
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NYKVARN/artfynd/A 8285-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NYKVARN/artfynd/A 8285-2022.xlsx", "A 8285-2022")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NYKVARN/kartor/A 8285-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NYKVARN/kartor/A 8285-2022.png", "A 8285-2022")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NYKVARN/klagomål/A 8285-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NYKVARN/klagomål/A 8285-2022.docx", "A 8285-2022")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NYKVARN/klagomålsmail/A 8285-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NYKVARN/klagomålsmail/A 8285-2022.docx", "A 8285-2022")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NYKVARN/tillsyn/A 8285-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NYKVARN/tillsyn/A 8285-2022.docx", "A 8285-2022")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NYKVARN/tillsynsmail/A 8285-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NYKVARN/tillsynsmail/A 8285-2022.docx", "A 8285-2022")</f>
         <v/>
       </c>
     </row>
@@ -1290,7 +1290,7 @@
         <v>44617</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1341,27 +1341,27 @@
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NYKVARN/artfynd/A 9714-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NYKVARN/artfynd/A 9714-2022.xlsx", "A 9714-2022")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NYKVARN/kartor/A 9714-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NYKVARN/kartor/A 9714-2022.png", "A 9714-2022")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NYKVARN/klagomål/A 9714-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NYKVARN/klagomål/A 9714-2022.docx", "A 9714-2022")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NYKVARN/klagomålsmail/A 9714-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NYKVARN/klagomålsmail/A 9714-2022.docx", "A 9714-2022")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NYKVARN/tillsyn/A 9714-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NYKVARN/tillsyn/A 9714-2022.docx", "A 9714-2022")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NYKVARN/tillsynsmail/A 9714-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NYKVARN/tillsynsmail/A 9714-2022.docx", "A 9714-2022")</f>
         <v/>
       </c>
     </row>
@@ -1375,7 +1375,7 @@
         <v>44699</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1431,27 +1431,27 @@
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NYKVARN/artfynd/A 20456-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NYKVARN/artfynd/A 20456-2022.xlsx", "A 20456-2022")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NYKVARN/kartor/A 20456-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NYKVARN/kartor/A 20456-2022.png", "A 20456-2022")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NYKVARN/klagomål/A 20456-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NYKVARN/klagomål/A 20456-2022.docx", "A 20456-2022")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NYKVARN/klagomålsmail/A 20456-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NYKVARN/klagomålsmail/A 20456-2022.docx", "A 20456-2022")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NYKVARN/tillsyn/A 20456-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NYKVARN/tillsyn/A 20456-2022.docx", "A 20456-2022")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NYKVARN/tillsynsmail/A 20456-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NYKVARN/tillsynsmail/A 20456-2022.docx", "A 20456-2022")</f>
         <v/>
       </c>
     </row>
@@ -1465,7 +1465,7 @@
         <v>45050</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1521,27 +1521,27 @@
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NYKVARN/artfynd/A 19489-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NYKVARN/artfynd/A 19489-2023.xlsx", "A 19489-2023")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NYKVARN/kartor/A 19489-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NYKVARN/kartor/A 19489-2023.png", "A 19489-2023")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NYKVARN/klagomål/A 19489-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NYKVARN/klagomål/A 19489-2023.docx", "A 19489-2023")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NYKVARN/klagomålsmail/A 19489-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NYKVARN/klagomålsmail/A 19489-2023.docx", "A 19489-2023")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NYKVARN/tillsyn/A 19489-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NYKVARN/tillsyn/A 19489-2023.docx", "A 19489-2023")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NYKVARN/tillsynsmail/A 19489-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NYKVARN/tillsynsmail/A 19489-2023.docx", "A 19489-2023")</f>
         <v/>
       </c>
     </row>
@@ -1555,7 +1555,7 @@
         <v>43409</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1617,7 +1617,7 @@
         <v>43409</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1679,7 +1679,7 @@
         <v>43413</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1736,7 +1736,7 @@
         <v>43419</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1793,7 +1793,7 @@
         <v>43419</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1850,7 +1850,7 @@
         <v>43440</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1907,7 +1907,7 @@
         <v>43441</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1964,7 +1964,7 @@
         <v>43441</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2021,7 +2021,7 @@
         <v>43443</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2078,7 +2078,7 @@
         <v>43479</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2135,7 +2135,7 @@
         <v>43522</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2192,7 +2192,7 @@
         <v>43534</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2249,7 +2249,7 @@
         <v>43565</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         <v>43609</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2363,7 +2363,7 @@
         <v>43619</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2425,7 +2425,7 @@
         <v>43619</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2487,7 +2487,7 @@
         <v>43649</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2544,7 +2544,7 @@
         <v>43658</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2601,7 +2601,7 @@
         <v>43684</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2658,7 +2658,7 @@
         <v>43724</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2715,7 +2715,7 @@
         <v>43731</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2777,7 +2777,7 @@
         <v>43731</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2839,7 +2839,7 @@
         <v>43731</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2901,7 +2901,7 @@
         <v>43740</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2958,7 +2958,7 @@
         <v>43798</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3015,7 +3015,7 @@
         <v>43803</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3072,7 +3072,7 @@
         <v>43915</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3129,7 +3129,7 @@
         <v>43924</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3191,7 +3191,7 @@
         <v>43924</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3253,7 +3253,7 @@
         <v>43956</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3310,7 +3310,7 @@
         <v>43956</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3367,7 +3367,7 @@
         <v>43993</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3424,7 +3424,7 @@
         <v>44000</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3486,7 +3486,7 @@
         <v>44104</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3543,7 +3543,7 @@
         <v>44148</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3600,7 +3600,7 @@
         <v>44183</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3662,7 +3662,7 @@
         <v>44316</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3719,7 +3719,7 @@
         <v>44332</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3776,7 +3776,7 @@
         <v>44403</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3833,7 +3833,7 @@
         <v>44434</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3890,7 +3890,7 @@
         <v>44462</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3947,7 +3947,7 @@
         <v>44473</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4004,7 +4004,7 @@
         <v>44523</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4061,7 +4061,7 @@
         <v>44540</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4118,7 +4118,7 @@
         <v>44550</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4180,7 +4180,7 @@
         <v>44558</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4242,7 +4242,7 @@
         <v>44602</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4304,7 +4304,7 @@
         <v>44602</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4366,7 +4366,7 @@
         <v>44602</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4428,7 +4428,7 @@
         <v>44610</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4485,7 +4485,7 @@
         <v>44616</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4542,7 +4542,7 @@
         <v>44630</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4599,7 +4599,7 @@
         <v>44635</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4656,7 +4656,7 @@
         <v>44638</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4713,7 +4713,7 @@
         <v>44713</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4775,7 +4775,7 @@
         <v>44713</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4837,7 +4837,7 @@
         <v>44720</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4894,7 +4894,7 @@
         <v>44726</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4951,7 +4951,7 @@
         <v>44730</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5008,7 +5008,7 @@
         <v>44834</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5070,7 +5070,7 @@
         <v>44840</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5127,7 +5127,7 @@
         <v>44867</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5189,7 +5189,7 @@
         <v>44872</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5246,7 +5246,7 @@
         <v>44872</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5303,7 +5303,7 @@
         <v>44875</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5365,7 +5365,7 @@
         <v>44875</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5427,7 +5427,7 @@
         <v>44881</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5489,7 +5489,7 @@
         <v>44883</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5551,7 +5551,7 @@
         <v>44883</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5613,7 +5613,7 @@
         <v>44889</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5675,7 +5675,7 @@
         <v>44973</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5732,7 +5732,7 @@
         <v>44987</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5794,7 +5794,7 @@
         <v>45020</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5856,7 +5856,7 @@
         <v>45034</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5918,7 +5918,7 @@
         <v>45036</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5975,7 +5975,7 @@
         <v>45044</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6037,7 +6037,7 @@
         <v>45044</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6099,7 +6099,7 @@
         <v>45050</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6161,7 +6161,7 @@
         <v>45050</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6223,7 +6223,7 @@
         <v>45050</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6285,7 +6285,7 @@
         <v>45054</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6342,7 +6342,7 @@
         <v>45069</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6399,7 +6399,7 @@
         <v>45084</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6456,7 +6456,7 @@
         <v>45167</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6513,7 +6513,7 @@
         <v>45167</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>

--- a/Översikt NYKVARN.xlsx
+++ b/Översikt NYKVARN.xlsx
@@ -572,7 +572,7 @@
         <v>44628</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>44637</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>43438</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -846,7 +846,7 @@
         <v>44862</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -938,7 +938,7 @@
         <v>44602</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1029,7 +1029,7 @@
         <v>45020</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1120,7 +1120,7 @@
         <v>43906</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1205,7 +1205,7 @@
         <v>44610</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1290,7 +1290,7 @@
         <v>44617</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1375,7 +1375,7 @@
         <v>44699</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1465,7 +1465,7 @@
         <v>45050</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1555,7 +1555,7 @@
         <v>43409</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1617,7 +1617,7 @@
         <v>43409</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1679,7 +1679,7 @@
         <v>43413</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1736,7 +1736,7 @@
         <v>43419</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1793,7 +1793,7 @@
         <v>43419</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1850,7 +1850,7 @@
         <v>43440</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1907,7 +1907,7 @@
         <v>43441</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1964,7 +1964,7 @@
         <v>43441</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2021,7 +2021,7 @@
         <v>43443</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2078,7 +2078,7 @@
         <v>43479</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2135,7 +2135,7 @@
         <v>43522</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2192,7 +2192,7 @@
         <v>43534</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2249,7 +2249,7 @@
         <v>43565</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         <v>43609</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2363,7 +2363,7 @@
         <v>43619</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2425,7 +2425,7 @@
         <v>43619</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2487,7 +2487,7 @@
         <v>43649</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2544,7 +2544,7 @@
         <v>43658</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2601,7 +2601,7 @@
         <v>43684</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2658,7 +2658,7 @@
         <v>43724</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2715,7 +2715,7 @@
         <v>43731</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2777,7 +2777,7 @@
         <v>43731</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2839,7 +2839,7 @@
         <v>43731</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2901,7 +2901,7 @@
         <v>43740</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2958,7 +2958,7 @@
         <v>43798</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3015,7 +3015,7 @@
         <v>43803</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3072,7 +3072,7 @@
         <v>43915</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3129,7 +3129,7 @@
         <v>43924</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3191,7 +3191,7 @@
         <v>43924</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3253,7 +3253,7 @@
         <v>43956</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3310,7 +3310,7 @@
         <v>43956</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3367,7 +3367,7 @@
         <v>43993</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3424,7 +3424,7 @@
         <v>44000</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3486,7 +3486,7 @@
         <v>44104</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3543,7 +3543,7 @@
         <v>44148</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3600,7 +3600,7 @@
         <v>44183</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3662,7 +3662,7 @@
         <v>44316</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3719,7 +3719,7 @@
         <v>44332</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3776,7 +3776,7 @@
         <v>44403</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3833,7 +3833,7 @@
         <v>44434</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3890,7 +3890,7 @@
         <v>44462</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3947,7 +3947,7 @@
         <v>44473</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4004,7 +4004,7 @@
         <v>44523</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4061,7 +4061,7 @@
         <v>44540</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4118,7 +4118,7 @@
         <v>44550</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4180,7 +4180,7 @@
         <v>44558</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4242,7 +4242,7 @@
         <v>44602</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4304,7 +4304,7 @@
         <v>44602</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4366,7 +4366,7 @@
         <v>44602</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4428,7 +4428,7 @@
         <v>44610</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4485,7 +4485,7 @@
         <v>44616</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4542,7 +4542,7 @@
         <v>44630</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4599,7 +4599,7 @@
         <v>44635</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4656,7 +4656,7 @@
         <v>44638</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4713,7 +4713,7 @@
         <v>44713</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4775,7 +4775,7 @@
         <v>44713</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4837,7 +4837,7 @@
         <v>44720</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4894,7 +4894,7 @@
         <v>44726</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4951,7 +4951,7 @@
         <v>44730</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5008,7 +5008,7 @@
         <v>44834</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5070,7 +5070,7 @@
         <v>44840</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5127,7 +5127,7 @@
         <v>44867</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5189,7 +5189,7 @@
         <v>44872</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5246,7 +5246,7 @@
         <v>44872</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5303,7 +5303,7 @@
         <v>44875</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5365,7 +5365,7 @@
         <v>44875</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5427,7 +5427,7 @@
         <v>44881</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5489,7 +5489,7 @@
         <v>44883</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5551,7 +5551,7 @@
         <v>44883</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5613,7 +5613,7 @@
         <v>44889</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5675,7 +5675,7 @@
         <v>44973</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5732,7 +5732,7 @@
         <v>44987</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5794,7 +5794,7 @@
         <v>45020</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5856,7 +5856,7 @@
         <v>45034</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5918,7 +5918,7 @@
         <v>45036</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5975,7 +5975,7 @@
         <v>45044</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6037,7 +6037,7 @@
         <v>45044</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6099,7 +6099,7 @@
         <v>45050</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6161,7 +6161,7 @@
         <v>45050</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6223,7 +6223,7 @@
         <v>45050</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6285,7 +6285,7 @@
         <v>45054</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6342,7 +6342,7 @@
         <v>45069</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6399,7 +6399,7 @@
         <v>45084</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6456,7 +6456,7 @@
         <v>45167</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6513,7 +6513,7 @@
         <v>45167</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>

--- a/Översikt NYKVARN.xlsx
+++ b/Översikt NYKVARN.xlsx
@@ -572,7 +572,7 @@
         <v>44628</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>44637</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>43438</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -846,7 +846,7 @@
         <v>44862</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -938,7 +938,7 @@
         <v>44602</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1029,7 +1029,7 @@
         <v>45020</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1120,7 +1120,7 @@
         <v>43906</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1205,7 +1205,7 @@
         <v>44610</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1290,7 +1290,7 @@
         <v>44617</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1375,7 +1375,7 @@
         <v>44699</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1465,7 +1465,7 @@
         <v>45050</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1555,7 +1555,7 @@
         <v>43409</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1617,7 +1617,7 @@
         <v>43409</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1679,7 +1679,7 @@
         <v>43413</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1736,7 +1736,7 @@
         <v>43419</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1793,7 +1793,7 @@
         <v>43419</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1850,7 +1850,7 @@
         <v>43440</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1907,7 +1907,7 @@
         <v>43441</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1964,7 +1964,7 @@
         <v>43441</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2021,7 +2021,7 @@
         <v>43443</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2078,7 +2078,7 @@
         <v>43479</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2135,7 +2135,7 @@
         <v>43522</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2192,7 +2192,7 @@
         <v>43534</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2249,7 +2249,7 @@
         <v>43565</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         <v>43609</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2363,7 +2363,7 @@
         <v>43619</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2425,7 +2425,7 @@
         <v>43619</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2487,7 +2487,7 @@
         <v>43649</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2544,7 +2544,7 @@
         <v>43658</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2601,7 +2601,7 @@
         <v>43684</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2658,7 +2658,7 @@
         <v>43724</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2715,7 +2715,7 @@
         <v>43731</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2777,7 +2777,7 @@
         <v>43731</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2839,7 +2839,7 @@
         <v>43731</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2901,7 +2901,7 @@
         <v>43740</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2958,7 +2958,7 @@
         <v>43798</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3015,7 +3015,7 @@
         <v>43803</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3072,7 +3072,7 @@
         <v>43915</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3129,7 +3129,7 @@
         <v>43924</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3191,7 +3191,7 @@
         <v>43924</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3253,7 +3253,7 @@
         <v>43956</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3310,7 +3310,7 @@
         <v>43956</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3367,7 +3367,7 @@
         <v>43993</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3424,7 +3424,7 @@
         <v>44000</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3486,7 +3486,7 @@
         <v>44104</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3543,7 +3543,7 @@
         <v>44148</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3600,7 +3600,7 @@
         <v>44183</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3662,7 +3662,7 @@
         <v>44316</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3719,7 +3719,7 @@
         <v>44332</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3776,7 +3776,7 @@
         <v>44403</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3833,7 +3833,7 @@
         <v>44434</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3890,7 +3890,7 @@
         <v>44462</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3947,7 +3947,7 @@
         <v>44473</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4004,7 +4004,7 @@
         <v>44523</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4061,7 +4061,7 @@
         <v>44540</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4118,7 +4118,7 @@
         <v>44550</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4180,7 +4180,7 @@
         <v>44558</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4242,7 +4242,7 @@
         <v>44602</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4304,7 +4304,7 @@
         <v>44602</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4366,7 +4366,7 @@
         <v>44602</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4428,7 +4428,7 @@
         <v>44610</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4485,7 +4485,7 @@
         <v>44616</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4542,7 +4542,7 @@
         <v>44630</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4599,7 +4599,7 @@
         <v>44635</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4656,7 +4656,7 @@
         <v>44638</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4713,7 +4713,7 @@
         <v>44713</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4775,7 +4775,7 @@
         <v>44713</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4837,7 +4837,7 @@
         <v>44720</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4894,7 +4894,7 @@
         <v>44726</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4951,7 +4951,7 @@
         <v>44730</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5008,7 +5008,7 @@
         <v>44834</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5070,7 +5070,7 @@
         <v>44840</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5127,7 +5127,7 @@
         <v>44867</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5189,7 +5189,7 @@
         <v>44872</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5246,7 +5246,7 @@
         <v>44872</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5303,7 +5303,7 @@
         <v>44875</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5365,7 +5365,7 @@
         <v>44875</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5427,7 +5427,7 @@
         <v>44881</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5489,7 +5489,7 @@
         <v>44883</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5551,7 +5551,7 @@
         <v>44883</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5613,7 +5613,7 @@
         <v>44889</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5675,7 +5675,7 @@
         <v>44973</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5732,7 +5732,7 @@
         <v>44987</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5794,7 +5794,7 @@
         <v>45020</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5856,7 +5856,7 @@
         <v>45034</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5918,7 +5918,7 @@
         <v>45036</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5975,7 +5975,7 @@
         <v>45044</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6037,7 +6037,7 @@
         <v>45044</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6099,7 +6099,7 @@
         <v>45050</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6161,7 +6161,7 @@
         <v>45050</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6223,7 +6223,7 @@
         <v>45050</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6285,7 +6285,7 @@
         <v>45054</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6342,7 +6342,7 @@
         <v>45069</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6399,7 +6399,7 @@
         <v>45084</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6456,7 +6456,7 @@
         <v>45167</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6513,7 +6513,7 @@
         <v>45167</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>

--- a/Översikt NYKVARN.xlsx
+++ b/Översikt NYKVARN.xlsx
@@ -572,7 +572,7 @@
         <v>44628</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>44637</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>43438</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -846,7 +846,7 @@
         <v>44862</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -938,7 +938,7 @@
         <v>44602</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1029,7 +1029,7 @@
         <v>45020</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1120,7 +1120,7 @@
         <v>43906</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1205,7 +1205,7 @@
         <v>44610</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1290,7 +1290,7 @@
         <v>44617</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1375,7 +1375,7 @@
         <v>44699</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1465,7 +1465,7 @@
         <v>45050</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1555,7 +1555,7 @@
         <v>43409</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1617,7 +1617,7 @@
         <v>43409</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1679,7 +1679,7 @@
         <v>43413</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1736,7 +1736,7 @@
         <v>43419</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1793,7 +1793,7 @@
         <v>43419</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1850,7 +1850,7 @@
         <v>43440</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1907,7 +1907,7 @@
         <v>43441</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1964,7 +1964,7 @@
         <v>43441</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2021,7 +2021,7 @@
         <v>43443</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2078,7 +2078,7 @@
         <v>43479</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2135,7 +2135,7 @@
         <v>43522</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2192,7 +2192,7 @@
         <v>43534</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2249,7 +2249,7 @@
         <v>43565</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         <v>43609</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2363,7 +2363,7 @@
         <v>43619</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2425,7 +2425,7 @@
         <v>43619</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2487,7 +2487,7 @@
         <v>43649</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2544,7 +2544,7 @@
         <v>43658</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2601,7 +2601,7 @@
         <v>43684</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2658,7 +2658,7 @@
         <v>43724</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2715,7 +2715,7 @@
         <v>43731</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2777,7 +2777,7 @@
         <v>43731</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2839,7 +2839,7 @@
         <v>43731</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2901,7 +2901,7 @@
         <v>43740</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2958,7 +2958,7 @@
         <v>43798</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3015,7 +3015,7 @@
         <v>43803</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3072,7 +3072,7 @@
         <v>43915</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3129,7 +3129,7 @@
         <v>43924</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3191,7 +3191,7 @@
         <v>43924</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3253,7 +3253,7 @@
         <v>43956</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3310,7 +3310,7 @@
         <v>43956</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3367,7 +3367,7 @@
         <v>43993</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3424,7 +3424,7 @@
         <v>44000</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3486,7 +3486,7 @@
         <v>44104</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3543,7 +3543,7 @@
         <v>44148</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3600,7 +3600,7 @@
         <v>44183</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3662,7 +3662,7 @@
         <v>44316</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3719,7 +3719,7 @@
         <v>44332</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3776,7 +3776,7 @@
         <v>44403</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3833,7 +3833,7 @@
         <v>44434</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3890,7 +3890,7 @@
         <v>44462</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3947,7 +3947,7 @@
         <v>44473</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4004,7 +4004,7 @@
         <v>44523</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4061,7 +4061,7 @@
         <v>44540</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4118,7 +4118,7 @@
         <v>44550</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4180,7 +4180,7 @@
         <v>44558</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4242,7 +4242,7 @@
         <v>44602</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4304,7 +4304,7 @@
         <v>44602</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4366,7 +4366,7 @@
         <v>44602</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4428,7 +4428,7 @@
         <v>44610</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4485,7 +4485,7 @@
         <v>44616</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4542,7 +4542,7 @@
         <v>44630</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4599,7 +4599,7 @@
         <v>44635</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4656,7 +4656,7 @@
         <v>44638</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4713,7 +4713,7 @@
         <v>44713</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4775,7 +4775,7 @@
         <v>44713</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4837,7 +4837,7 @@
         <v>44720</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4894,7 +4894,7 @@
         <v>44726</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4951,7 +4951,7 @@
         <v>44730</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5008,7 +5008,7 @@
         <v>44834</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5070,7 +5070,7 @@
         <v>44840</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5127,7 +5127,7 @@
         <v>44867</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5189,7 +5189,7 @@
         <v>44872</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5246,7 +5246,7 @@
         <v>44872</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5303,7 +5303,7 @@
         <v>44875</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5365,7 +5365,7 @@
         <v>44875</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5427,7 +5427,7 @@
         <v>44881</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5489,7 +5489,7 @@
         <v>44883</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5551,7 +5551,7 @@
         <v>44883</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5613,7 +5613,7 @@
         <v>44889</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5675,7 +5675,7 @@
         <v>44973</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5732,7 +5732,7 @@
         <v>44987</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5794,7 +5794,7 @@
         <v>45020</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5856,7 +5856,7 @@
         <v>45034</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5918,7 +5918,7 @@
         <v>45036</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5975,7 +5975,7 @@
         <v>45044</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6037,7 +6037,7 @@
         <v>45044</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6099,7 +6099,7 @@
         <v>45050</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6161,7 +6161,7 @@
         <v>45050</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6223,7 +6223,7 @@
         <v>45050</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6285,7 +6285,7 @@
         <v>45054</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6342,7 +6342,7 @@
         <v>45069</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6399,7 +6399,7 @@
         <v>45084</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6456,7 +6456,7 @@
         <v>45167</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6513,7 +6513,7 @@
         <v>45167</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>

--- a/Översikt NYKVARN.xlsx
+++ b/Översikt NYKVARN.xlsx
@@ -572,7 +572,7 @@
         <v>44628</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>44637</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>43438</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -846,7 +846,7 @@
         <v>44862</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -938,7 +938,7 @@
         <v>44602</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1029,7 +1029,7 @@
         <v>45020</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1120,7 +1120,7 @@
         <v>43906</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1205,7 +1205,7 @@
         <v>44610</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1290,7 +1290,7 @@
         <v>44617</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1375,7 +1375,7 @@
         <v>44699</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1465,7 +1465,7 @@
         <v>45050</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1555,7 +1555,7 @@
         <v>43409</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1617,7 +1617,7 @@
         <v>43409</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1679,7 +1679,7 @@
         <v>43413</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1736,7 +1736,7 @@
         <v>43419</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1793,7 +1793,7 @@
         <v>43419</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1850,7 +1850,7 @@
         <v>43440</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1907,7 +1907,7 @@
         <v>43441</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1964,7 +1964,7 @@
         <v>43441</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2021,7 +2021,7 @@
         <v>43443</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2078,7 +2078,7 @@
         <v>43479</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2135,7 +2135,7 @@
         <v>43522</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2192,7 +2192,7 @@
         <v>43534</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2249,7 +2249,7 @@
         <v>43565</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         <v>43609</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2363,7 +2363,7 @@
         <v>43619</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2425,7 +2425,7 @@
         <v>43619</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2487,7 +2487,7 @@
         <v>43649</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2544,7 +2544,7 @@
         <v>43658</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2601,7 +2601,7 @@
         <v>43684</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2658,7 +2658,7 @@
         <v>43724</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2715,7 +2715,7 @@
         <v>43731</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2777,7 +2777,7 @@
         <v>43731</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2839,7 +2839,7 @@
         <v>43731</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2901,7 +2901,7 @@
         <v>43740</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2958,7 +2958,7 @@
         <v>43798</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3015,7 +3015,7 @@
         <v>43803</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3072,7 +3072,7 @@
         <v>43915</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3129,7 +3129,7 @@
         <v>43924</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3191,7 +3191,7 @@
         <v>43924</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3253,7 +3253,7 @@
         <v>43956</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3310,7 +3310,7 @@
         <v>43956</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3367,7 +3367,7 @@
         <v>43993</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3424,7 +3424,7 @@
         <v>44000</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3486,7 +3486,7 @@
         <v>44104</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3543,7 +3543,7 @@
         <v>44148</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3600,7 +3600,7 @@
         <v>44183</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3662,7 +3662,7 @@
         <v>44316</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3719,7 +3719,7 @@
         <v>44332</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3776,7 +3776,7 @@
         <v>44403</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3833,7 +3833,7 @@
         <v>44434</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3890,7 +3890,7 @@
         <v>44462</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3947,7 +3947,7 @@
         <v>44473</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4004,7 +4004,7 @@
         <v>44523</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4061,7 +4061,7 @@
         <v>44540</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4118,7 +4118,7 @@
         <v>44550</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4180,7 +4180,7 @@
         <v>44558</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4242,7 +4242,7 @@
         <v>44602</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4304,7 +4304,7 @@
         <v>44602</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4366,7 +4366,7 @@
         <v>44602</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4428,7 +4428,7 @@
         <v>44610</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4485,7 +4485,7 @@
         <v>44616</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4542,7 +4542,7 @@
         <v>44630</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4599,7 +4599,7 @@
         <v>44635</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4656,7 +4656,7 @@
         <v>44638</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4713,7 +4713,7 @@
         <v>44713</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4775,7 +4775,7 @@
         <v>44713</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4837,7 +4837,7 @@
         <v>44720</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4894,7 +4894,7 @@
         <v>44726</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4951,7 +4951,7 @@
         <v>44730</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5008,7 +5008,7 @@
         <v>44834</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5070,7 +5070,7 @@
         <v>44840</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5127,7 +5127,7 @@
         <v>44867</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5189,7 +5189,7 @@
         <v>44872</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5246,7 +5246,7 @@
         <v>44872</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5303,7 +5303,7 @@
         <v>44875</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5365,7 +5365,7 @@
         <v>44875</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5427,7 +5427,7 @@
         <v>44881</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5489,7 +5489,7 @@
         <v>44883</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5551,7 +5551,7 @@
         <v>44883</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5613,7 +5613,7 @@
         <v>44889</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5675,7 +5675,7 @@
         <v>44973</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5732,7 +5732,7 @@
         <v>44987</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5794,7 +5794,7 @@
         <v>45020</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5856,7 +5856,7 @@
         <v>45034</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5918,7 +5918,7 @@
         <v>45036</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5975,7 +5975,7 @@
         <v>45044</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6037,7 +6037,7 @@
         <v>45044</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6099,7 +6099,7 @@
         <v>45050</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6161,7 +6161,7 @@
         <v>45050</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6223,7 +6223,7 @@
         <v>45050</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6285,7 +6285,7 @@
         <v>45054</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6342,7 +6342,7 @@
         <v>45069</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6399,7 +6399,7 @@
         <v>45084</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6456,7 +6456,7 @@
         <v>45167</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6513,7 +6513,7 @@
         <v>45167</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>

--- a/Översikt NYKVARN.xlsx
+++ b/Översikt NYKVARN.xlsx
@@ -572,7 +572,7 @@
         <v>44628</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>44637</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>43438</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -846,7 +846,7 @@
         <v>44862</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -938,7 +938,7 @@
         <v>44602</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1029,7 +1029,7 @@
         <v>45020</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1120,7 +1120,7 @@
         <v>43906</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1205,7 +1205,7 @@
         <v>44610</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1290,7 +1290,7 @@
         <v>44617</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1375,7 +1375,7 @@
         <v>44699</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1465,7 +1465,7 @@
         <v>45050</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1555,7 +1555,7 @@
         <v>43409</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1617,7 +1617,7 @@
         <v>43409</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1679,7 +1679,7 @@
         <v>43413</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1736,7 +1736,7 @@
         <v>43419</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1793,7 +1793,7 @@
         <v>43419</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1850,7 +1850,7 @@
         <v>43440</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1907,7 +1907,7 @@
         <v>43441</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1964,7 +1964,7 @@
         <v>43441</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2021,7 +2021,7 @@
         <v>43443</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2078,7 +2078,7 @@
         <v>43479</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2135,7 +2135,7 @@
         <v>43522</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2192,7 +2192,7 @@
         <v>43534</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2249,7 +2249,7 @@
         <v>43565</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         <v>43609</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2363,7 +2363,7 @@
         <v>43619</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2425,7 +2425,7 @@
         <v>43619</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2487,7 +2487,7 @@
         <v>43649</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2544,7 +2544,7 @@
         <v>43658</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2601,7 +2601,7 @@
         <v>43684</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2658,7 +2658,7 @@
         <v>43724</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2715,7 +2715,7 @@
         <v>43731</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2777,7 +2777,7 @@
         <v>43731</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2839,7 +2839,7 @@
         <v>43731</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2901,7 +2901,7 @@
         <v>43740</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2958,7 +2958,7 @@
         <v>43798</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3015,7 +3015,7 @@
         <v>43803</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3072,7 +3072,7 @@
         <v>43915</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3129,7 +3129,7 @@
         <v>43924</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3191,7 +3191,7 @@
         <v>43924</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3253,7 +3253,7 @@
         <v>43956</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3310,7 +3310,7 @@
         <v>43956</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3367,7 +3367,7 @@
         <v>43993</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3424,7 +3424,7 @@
         <v>44000</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3486,7 +3486,7 @@
         <v>44104</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3543,7 +3543,7 @@
         <v>44148</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3600,7 +3600,7 @@
         <v>44183</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3662,7 +3662,7 @@
         <v>44316</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3719,7 +3719,7 @@
         <v>44332</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3776,7 +3776,7 @@
         <v>44403</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3833,7 +3833,7 @@
         <v>44434</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3890,7 +3890,7 @@
         <v>44462</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3947,7 +3947,7 @@
         <v>44473</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4004,7 +4004,7 @@
         <v>44523</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4061,7 +4061,7 @@
         <v>44540</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4118,7 +4118,7 @@
         <v>44550</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4180,7 +4180,7 @@
         <v>44558</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4242,7 +4242,7 @@
         <v>44602</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4304,7 +4304,7 @@
         <v>44602</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4366,7 +4366,7 @@
         <v>44602</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4428,7 +4428,7 @@
         <v>44610</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4485,7 +4485,7 @@
         <v>44616</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4542,7 +4542,7 @@
         <v>44630</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4599,7 +4599,7 @@
         <v>44635</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4656,7 +4656,7 @@
         <v>44638</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4713,7 +4713,7 @@
         <v>44713</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4775,7 +4775,7 @@
         <v>44713</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4837,7 +4837,7 @@
         <v>44720</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4894,7 +4894,7 @@
         <v>44726</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4951,7 +4951,7 @@
         <v>44730</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5008,7 +5008,7 @@
         <v>44834</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5070,7 +5070,7 @@
         <v>44840</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5127,7 +5127,7 @@
         <v>44867</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5189,7 +5189,7 @@
         <v>44872</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5246,7 +5246,7 @@
         <v>44872</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5303,7 +5303,7 @@
         <v>44875</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5365,7 +5365,7 @@
         <v>44875</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5427,7 +5427,7 @@
         <v>44881</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5489,7 +5489,7 @@
         <v>44883</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5551,7 +5551,7 @@
         <v>44883</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5613,7 +5613,7 @@
         <v>44889</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5675,7 +5675,7 @@
         <v>44973</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5732,7 +5732,7 @@
         <v>44987</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5794,7 +5794,7 @@
         <v>45020</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5856,7 +5856,7 @@
         <v>45034</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5918,7 +5918,7 @@
         <v>45036</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5975,7 +5975,7 @@
         <v>45044</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6037,7 +6037,7 @@
         <v>45044</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6099,7 +6099,7 @@
         <v>45050</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6161,7 +6161,7 @@
         <v>45050</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6223,7 +6223,7 @@
         <v>45050</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6285,7 +6285,7 @@
         <v>45054</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6342,7 +6342,7 @@
         <v>45069</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6399,7 +6399,7 @@
         <v>45084</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6456,7 +6456,7 @@
         <v>45167</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6513,7 +6513,7 @@
         <v>45167</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>

--- a/Översikt NYKVARN.xlsx
+++ b/Översikt NYKVARN.xlsx
@@ -572,7 +572,7 @@
         <v>44628</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>44637</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>43438</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -846,7 +846,7 @@
         <v>44862</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -938,7 +938,7 @@
         <v>44602</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1029,7 +1029,7 @@
         <v>45020</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1120,7 +1120,7 @@
         <v>43906</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1205,7 +1205,7 @@
         <v>44610</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1290,7 +1290,7 @@
         <v>44617</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1375,7 +1375,7 @@
         <v>44699</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1465,7 +1465,7 @@
         <v>45050</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1555,7 +1555,7 @@
         <v>43409</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1617,7 +1617,7 @@
         <v>43409</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1679,7 +1679,7 @@
         <v>43413</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1736,7 +1736,7 @@
         <v>43419</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1793,7 +1793,7 @@
         <v>43419</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1850,7 +1850,7 @@
         <v>43440</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1907,7 +1907,7 @@
         <v>43441</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1964,7 +1964,7 @@
         <v>43441</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2021,7 +2021,7 @@
         <v>43443</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2078,7 +2078,7 @@
         <v>43479</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2135,7 +2135,7 @@
         <v>43522</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2192,7 +2192,7 @@
         <v>43534</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2249,7 +2249,7 @@
         <v>43565</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         <v>43609</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2363,7 +2363,7 @@
         <v>43619</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2425,7 +2425,7 @@
         <v>43619</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2487,7 +2487,7 @@
         <v>43649</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2544,7 +2544,7 @@
         <v>43658</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2601,7 +2601,7 @@
         <v>43684</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2658,7 +2658,7 @@
         <v>43724</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2715,7 +2715,7 @@
         <v>43731</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2777,7 +2777,7 @@
         <v>43731</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2839,7 +2839,7 @@
         <v>43731</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2901,7 +2901,7 @@
         <v>43740</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2958,7 +2958,7 @@
         <v>43798</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3015,7 +3015,7 @@
         <v>43803</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3072,7 +3072,7 @@
         <v>43915</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3129,7 +3129,7 @@
         <v>43924</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3191,7 +3191,7 @@
         <v>43924</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3253,7 +3253,7 @@
         <v>43956</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3310,7 +3310,7 @@
         <v>43956</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3367,7 +3367,7 @@
         <v>43993</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3424,7 +3424,7 @@
         <v>44000</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3486,7 +3486,7 @@
         <v>44104</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3543,7 +3543,7 @@
         <v>44148</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3600,7 +3600,7 @@
         <v>44183</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3662,7 +3662,7 @@
         <v>44316</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3719,7 +3719,7 @@
         <v>44332</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3776,7 +3776,7 @@
         <v>44403</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3833,7 +3833,7 @@
         <v>44434</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3890,7 +3890,7 @@
         <v>44462</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3947,7 +3947,7 @@
         <v>44473</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4004,7 +4004,7 @@
         <v>44523</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4061,7 +4061,7 @@
         <v>44540</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4118,7 +4118,7 @@
         <v>44550</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4180,7 +4180,7 @@
         <v>44558</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4242,7 +4242,7 @@
         <v>44602</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4304,7 +4304,7 @@
         <v>44602</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4366,7 +4366,7 @@
         <v>44602</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4428,7 +4428,7 @@
         <v>44610</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4485,7 +4485,7 @@
         <v>44616</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4542,7 +4542,7 @@
         <v>44630</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4599,7 +4599,7 @@
         <v>44635</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4656,7 +4656,7 @@
         <v>44638</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4713,7 +4713,7 @@
         <v>44713</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4775,7 +4775,7 @@
         <v>44713</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4837,7 +4837,7 @@
         <v>44720</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4894,7 +4894,7 @@
         <v>44726</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4951,7 +4951,7 @@
         <v>44730</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5008,7 +5008,7 @@
         <v>44834</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5070,7 +5070,7 @@
         <v>44840</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5127,7 +5127,7 @@
         <v>44867</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5189,7 +5189,7 @@
         <v>44872</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5246,7 +5246,7 @@
         <v>44872</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5303,7 +5303,7 @@
         <v>44875</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5365,7 +5365,7 @@
         <v>44875</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5427,7 +5427,7 @@
         <v>44881</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5489,7 +5489,7 @@
         <v>44883</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5551,7 +5551,7 @@
         <v>44883</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5613,7 +5613,7 @@
         <v>44889</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5675,7 +5675,7 @@
         <v>44973</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5732,7 +5732,7 @@
         <v>44987</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5794,7 +5794,7 @@
         <v>45020</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5856,7 +5856,7 @@
         <v>45034</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5918,7 +5918,7 @@
         <v>45036</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5975,7 +5975,7 @@
         <v>45044</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6037,7 +6037,7 @@
         <v>45044</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6099,7 +6099,7 @@
         <v>45050</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6161,7 +6161,7 @@
         <v>45050</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6223,7 +6223,7 @@
         <v>45050</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6285,7 +6285,7 @@
         <v>45054</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6342,7 +6342,7 @@
         <v>45069</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6399,7 +6399,7 @@
         <v>45084</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6456,7 +6456,7 @@
         <v>45167</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6513,7 +6513,7 @@
         <v>45167</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>

--- a/Översikt NYKVARN.xlsx
+++ b/Översikt NYKVARN.xlsx
@@ -572,7 +572,7 @@
         <v>44628</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>44637</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>43438</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -846,7 +846,7 @@
         <v>44862</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -938,7 +938,7 @@
         <v>44602</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1029,7 +1029,7 @@
         <v>45020</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1120,7 +1120,7 @@
         <v>43906</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1205,7 +1205,7 @@
         <v>44610</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1290,7 +1290,7 @@
         <v>44617</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1375,7 +1375,7 @@
         <v>44699</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1465,7 +1465,7 @@
         <v>45050</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1555,7 +1555,7 @@
         <v>43409</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1617,7 +1617,7 @@
         <v>43409</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1679,7 +1679,7 @@
         <v>43413</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1736,7 +1736,7 @@
         <v>43419</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1793,7 +1793,7 @@
         <v>43419</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1850,7 +1850,7 @@
         <v>43440</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1907,7 +1907,7 @@
         <v>43441</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1964,7 +1964,7 @@
         <v>43441</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2021,7 +2021,7 @@
         <v>43443</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2078,7 +2078,7 @@
         <v>43479</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2135,7 +2135,7 @@
         <v>43522</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2192,7 +2192,7 @@
         <v>43534</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2249,7 +2249,7 @@
         <v>43565</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         <v>43609</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2363,7 +2363,7 @@
         <v>43619</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2425,7 +2425,7 @@
         <v>43619</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2487,7 +2487,7 @@
         <v>43649</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2544,7 +2544,7 @@
         <v>43658</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2601,7 +2601,7 @@
         <v>43684</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2658,7 +2658,7 @@
         <v>43724</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2715,7 +2715,7 @@
         <v>43731</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2777,7 +2777,7 @@
         <v>43731</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2839,7 +2839,7 @@
         <v>43731</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2901,7 +2901,7 @@
         <v>43740</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2958,7 +2958,7 @@
         <v>43798</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3015,7 +3015,7 @@
         <v>43803</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3072,7 +3072,7 @@
         <v>43915</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3129,7 +3129,7 @@
         <v>43924</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3191,7 +3191,7 @@
         <v>43924</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3253,7 +3253,7 @@
         <v>43956</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3310,7 +3310,7 @@
         <v>43956</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3367,7 +3367,7 @@
         <v>43993</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3424,7 +3424,7 @@
         <v>44000</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3486,7 +3486,7 @@
         <v>44104</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3543,7 +3543,7 @@
         <v>44148</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3600,7 +3600,7 @@
         <v>44183</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3662,7 +3662,7 @@
         <v>44316</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3719,7 +3719,7 @@
         <v>44332</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3776,7 +3776,7 @@
         <v>44403</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3833,7 +3833,7 @@
         <v>44434</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3890,7 +3890,7 @@
         <v>44462</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3947,7 +3947,7 @@
         <v>44473</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4004,7 +4004,7 @@
         <v>44523</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4061,7 +4061,7 @@
         <v>44540</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4118,7 +4118,7 @@
         <v>44550</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4180,7 +4180,7 @@
         <v>44558</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4242,7 +4242,7 @@
         <v>44602</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4304,7 +4304,7 @@
         <v>44602</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4366,7 +4366,7 @@
         <v>44602</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4428,7 +4428,7 @@
         <v>44610</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4485,7 +4485,7 @@
         <v>44616</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4542,7 +4542,7 @@
         <v>44630</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4599,7 +4599,7 @@
         <v>44635</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4656,7 +4656,7 @@
         <v>44638</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4713,7 +4713,7 @@
         <v>44713</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4775,7 +4775,7 @@
         <v>44713</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4837,7 +4837,7 @@
         <v>44720</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4894,7 +4894,7 @@
         <v>44726</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4951,7 +4951,7 @@
         <v>44730</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5008,7 +5008,7 @@
         <v>44834</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5070,7 +5070,7 @@
         <v>44840</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5127,7 +5127,7 @@
         <v>44867</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5189,7 +5189,7 @@
         <v>44872</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5246,7 +5246,7 @@
         <v>44872</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5303,7 +5303,7 @@
         <v>44875</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5365,7 +5365,7 @@
         <v>44875</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5427,7 +5427,7 @@
         <v>44881</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5489,7 +5489,7 @@
         <v>44883</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5551,7 +5551,7 @@
         <v>44883</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5613,7 +5613,7 @@
         <v>44889</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5675,7 +5675,7 @@
         <v>44973</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5732,7 +5732,7 @@
         <v>44987</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5794,7 +5794,7 @@
         <v>45020</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5856,7 +5856,7 @@
         <v>45034</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5918,7 +5918,7 @@
         <v>45036</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5975,7 +5975,7 @@
         <v>45044</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6037,7 +6037,7 @@
         <v>45044</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6099,7 +6099,7 @@
         <v>45050</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6161,7 +6161,7 @@
         <v>45050</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6223,7 +6223,7 @@
         <v>45050</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6285,7 +6285,7 @@
         <v>45054</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6342,7 +6342,7 @@
         <v>45069</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6399,7 +6399,7 @@
         <v>45084</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6456,7 +6456,7 @@
         <v>45167</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6513,7 +6513,7 @@
         <v>45167</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>

--- a/Översikt NYKVARN.xlsx
+++ b/Översikt NYKVARN.xlsx
@@ -572,7 +572,7 @@
         <v>44628</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>44637</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>43438</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -846,7 +846,7 @@
         <v>44862</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -938,7 +938,7 @@
         <v>44602</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1029,7 +1029,7 @@
         <v>45020</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1120,7 +1120,7 @@
         <v>43906</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1205,7 +1205,7 @@
         <v>44610</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1290,7 +1290,7 @@
         <v>44617</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1375,7 +1375,7 @@
         <v>44699</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1465,7 +1465,7 @@
         <v>45050</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1555,7 +1555,7 @@
         <v>43409</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1617,7 +1617,7 @@
         <v>43409</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1679,7 +1679,7 @@
         <v>43413</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1736,7 +1736,7 @@
         <v>43419</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1793,7 +1793,7 @@
         <v>43419</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1850,7 +1850,7 @@
         <v>43440</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1907,7 +1907,7 @@
         <v>43441</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1964,7 +1964,7 @@
         <v>43441</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2021,7 +2021,7 @@
         <v>43443</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2078,7 +2078,7 @@
         <v>43479</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2135,7 +2135,7 @@
         <v>43522</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2192,7 +2192,7 @@
         <v>43534</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2249,7 +2249,7 @@
         <v>43565</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         <v>43609</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2363,7 +2363,7 @@
         <v>43619</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2425,7 +2425,7 @@
         <v>43619</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2487,7 +2487,7 @@
         <v>43649</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2544,7 +2544,7 @@
         <v>43658</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2601,7 +2601,7 @@
         <v>43684</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2658,7 +2658,7 @@
         <v>43724</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2715,7 +2715,7 @@
         <v>43731</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2777,7 +2777,7 @@
         <v>43731</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2839,7 +2839,7 @@
         <v>43731</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2901,7 +2901,7 @@
         <v>43740</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2958,7 +2958,7 @@
         <v>43798</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3015,7 +3015,7 @@
         <v>43803</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3072,7 +3072,7 @@
         <v>43915</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3129,7 +3129,7 @@
         <v>43924</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3191,7 +3191,7 @@
         <v>43924</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3253,7 +3253,7 @@
         <v>43956</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3310,7 +3310,7 @@
         <v>43956</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3367,7 +3367,7 @@
         <v>43993</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3424,7 +3424,7 @@
         <v>44000</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3486,7 +3486,7 @@
         <v>44104</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3543,7 +3543,7 @@
         <v>44148</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3600,7 +3600,7 @@
         <v>44183</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3662,7 +3662,7 @@
         <v>44316</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3719,7 +3719,7 @@
         <v>44332</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3776,7 +3776,7 @@
         <v>44403</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3833,7 +3833,7 @@
         <v>44434</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3890,7 +3890,7 @@
         <v>44462</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3947,7 +3947,7 @@
         <v>44473</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4004,7 +4004,7 @@
         <v>44523</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4061,7 +4061,7 @@
         <v>44540</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4118,7 +4118,7 @@
         <v>44550</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4180,7 +4180,7 @@
         <v>44558</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4242,7 +4242,7 @@
         <v>44602</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4304,7 +4304,7 @@
         <v>44602</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4366,7 +4366,7 @@
         <v>44602</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4428,7 +4428,7 @@
         <v>44610</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4485,7 +4485,7 @@
         <v>44616</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4542,7 +4542,7 @@
         <v>44630</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4599,7 +4599,7 @@
         <v>44635</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4656,7 +4656,7 @@
         <v>44638</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4713,7 +4713,7 @@
         <v>44713</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4775,7 +4775,7 @@
         <v>44713</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4837,7 +4837,7 @@
         <v>44720</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4894,7 +4894,7 @@
         <v>44726</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4951,7 +4951,7 @@
         <v>44730</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5008,7 +5008,7 @@
         <v>44834</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5070,7 +5070,7 @@
         <v>44840</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5127,7 +5127,7 @@
         <v>44867</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5189,7 +5189,7 @@
         <v>44872</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5246,7 +5246,7 @@
         <v>44872</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5303,7 +5303,7 @@
         <v>44875</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5365,7 +5365,7 @@
         <v>44875</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5427,7 +5427,7 @@
         <v>44881</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5489,7 +5489,7 @@
         <v>44883</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5551,7 +5551,7 @@
         <v>44883</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5613,7 +5613,7 @@
         <v>44889</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5675,7 +5675,7 @@
         <v>44973</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5732,7 +5732,7 @@
         <v>44987</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5794,7 +5794,7 @@
         <v>45020</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5856,7 +5856,7 @@
         <v>45034</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5918,7 +5918,7 @@
         <v>45036</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5975,7 +5975,7 @@
         <v>45044</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6037,7 +6037,7 @@
         <v>45044</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6099,7 +6099,7 @@
         <v>45050</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6161,7 +6161,7 @@
         <v>45050</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6223,7 +6223,7 @@
         <v>45050</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6285,7 +6285,7 @@
         <v>45054</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6342,7 +6342,7 @@
         <v>45069</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6399,7 +6399,7 @@
         <v>45084</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6456,7 +6456,7 @@
         <v>45167</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6513,7 +6513,7 @@
         <v>45167</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>

--- a/Översikt NYKVARN.xlsx
+++ b/Översikt NYKVARN.xlsx
@@ -572,7 +572,7 @@
         <v>44628</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>44637</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>43438</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -846,7 +846,7 @@
         <v>44862</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -938,7 +938,7 @@
         <v>44602</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1029,7 +1029,7 @@
         <v>45020</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1120,7 +1120,7 @@
         <v>43906</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1205,7 +1205,7 @@
         <v>44610</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1290,7 +1290,7 @@
         <v>44617</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1375,7 +1375,7 @@
         <v>44699</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1465,7 +1465,7 @@
         <v>45050</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1555,7 +1555,7 @@
         <v>43409</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1617,7 +1617,7 @@
         <v>43409</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1679,7 +1679,7 @@
         <v>43413</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1736,7 +1736,7 @@
         <v>43419</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1793,7 +1793,7 @@
         <v>43419</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1850,7 +1850,7 @@
         <v>43440</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1907,7 +1907,7 @@
         <v>43441</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1964,7 +1964,7 @@
         <v>43441</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2021,7 +2021,7 @@
         <v>43443</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2078,7 +2078,7 @@
         <v>43479</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2135,7 +2135,7 @@
         <v>43522</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2192,7 +2192,7 @@
         <v>43534</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2249,7 +2249,7 @@
         <v>43565</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         <v>43609</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2363,7 +2363,7 @@
         <v>43619</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2425,7 +2425,7 @@
         <v>43619</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2487,7 +2487,7 @@
         <v>43649</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2544,7 +2544,7 @@
         <v>43658</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2601,7 +2601,7 @@
         <v>43684</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2658,7 +2658,7 @@
         <v>43724</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2715,7 +2715,7 @@
         <v>43731</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2777,7 +2777,7 @@
         <v>43731</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2839,7 +2839,7 @@
         <v>43731</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2901,7 +2901,7 @@
         <v>43740</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2958,7 +2958,7 @@
         <v>43798</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3015,7 +3015,7 @@
         <v>43803</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3072,7 +3072,7 @@
         <v>43915</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3129,7 +3129,7 @@
         <v>43924</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3191,7 +3191,7 @@
         <v>43924</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3253,7 +3253,7 @@
         <v>43956</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3310,7 +3310,7 @@
         <v>43956</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3367,7 +3367,7 @@
         <v>43993</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3424,7 +3424,7 @@
         <v>44000</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3486,7 +3486,7 @@
         <v>44104</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3543,7 +3543,7 @@
         <v>44148</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3600,7 +3600,7 @@
         <v>44183</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3662,7 +3662,7 @@
         <v>44316</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3719,7 +3719,7 @@
         <v>44332</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3776,7 +3776,7 @@
         <v>44403</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3833,7 +3833,7 @@
         <v>44434</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3890,7 +3890,7 @@
         <v>44462</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3947,7 +3947,7 @@
         <v>44473</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4004,7 +4004,7 @@
         <v>44523</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4061,7 +4061,7 @@
         <v>44540</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4118,7 +4118,7 @@
         <v>44550</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4180,7 +4180,7 @@
         <v>44558</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4242,7 +4242,7 @@
         <v>44602</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4304,7 +4304,7 @@
         <v>44602</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4366,7 +4366,7 @@
         <v>44602</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4428,7 +4428,7 @@
         <v>44610</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4485,7 +4485,7 @@
         <v>44616</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4542,7 +4542,7 @@
         <v>44630</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4599,7 +4599,7 @@
         <v>44635</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4656,7 +4656,7 @@
         <v>44638</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4713,7 +4713,7 @@
         <v>44713</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4775,7 +4775,7 @@
         <v>44713</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4837,7 +4837,7 @@
         <v>44720</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4894,7 +4894,7 @@
         <v>44726</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4951,7 +4951,7 @@
         <v>44730</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5008,7 +5008,7 @@
         <v>44834</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5070,7 +5070,7 @@
         <v>44840</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5127,7 +5127,7 @@
         <v>44867</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5189,7 +5189,7 @@
         <v>44872</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5246,7 +5246,7 @@
         <v>44872</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5303,7 +5303,7 @@
         <v>44875</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5365,7 +5365,7 @@
         <v>44875</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5427,7 +5427,7 @@
         <v>44881</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5489,7 +5489,7 @@
         <v>44883</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5551,7 +5551,7 @@
         <v>44883</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5613,7 +5613,7 @@
         <v>44889</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5675,7 +5675,7 @@
         <v>44973</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5732,7 +5732,7 @@
         <v>44987</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5794,7 +5794,7 @@
         <v>45020</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5856,7 +5856,7 @@
         <v>45034</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5918,7 +5918,7 @@
         <v>45036</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5975,7 +5975,7 @@
         <v>45044</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6037,7 +6037,7 @@
         <v>45044</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6099,7 +6099,7 @@
         <v>45050</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6161,7 +6161,7 @@
         <v>45050</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6223,7 +6223,7 @@
         <v>45050</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6285,7 +6285,7 @@
         <v>45054</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6342,7 +6342,7 @@
         <v>45069</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6399,7 +6399,7 @@
         <v>45084</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6456,7 +6456,7 @@
         <v>45167</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6513,7 +6513,7 @@
         <v>45167</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>

--- a/Översikt NYKVARN.xlsx
+++ b/Översikt NYKVARN.xlsx
@@ -572,7 +572,7 @@
         <v>44628</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>44637</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>43438</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -846,7 +846,7 @@
         <v>44862</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -938,7 +938,7 @@
         <v>44602</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1029,7 +1029,7 @@
         <v>45020</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1120,7 +1120,7 @@
         <v>43906</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1205,7 +1205,7 @@
         <v>44610</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1290,7 +1290,7 @@
         <v>44617</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1375,7 +1375,7 @@
         <v>44699</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1465,7 +1465,7 @@
         <v>45050</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1555,7 +1555,7 @@
         <v>43409</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1617,7 +1617,7 @@
         <v>43409</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1679,7 +1679,7 @@
         <v>43413</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1736,7 +1736,7 @@
         <v>43419</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1793,7 +1793,7 @@
         <v>43419</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1850,7 +1850,7 @@
         <v>43440</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1907,7 +1907,7 @@
         <v>43441</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1964,7 +1964,7 @@
         <v>43441</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2021,7 +2021,7 @@
         <v>43443</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2078,7 +2078,7 @@
         <v>43479</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2135,7 +2135,7 @@
         <v>43522</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2192,7 +2192,7 @@
         <v>43534</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2249,7 +2249,7 @@
         <v>43565</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         <v>43609</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2363,7 +2363,7 @@
         <v>43619</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2425,7 +2425,7 @@
         <v>43619</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2487,7 +2487,7 @@
         <v>43649</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2544,7 +2544,7 @@
         <v>43658</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2601,7 +2601,7 @@
         <v>43684</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2658,7 +2658,7 @@
         <v>43724</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2715,7 +2715,7 @@
         <v>43731</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2777,7 +2777,7 @@
         <v>43731</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2839,7 +2839,7 @@
         <v>43731</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2901,7 +2901,7 @@
         <v>43740</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2958,7 +2958,7 @@
         <v>43798</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3015,7 +3015,7 @@
         <v>43803</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3072,7 +3072,7 @@
         <v>43915</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3129,7 +3129,7 @@
         <v>43924</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3191,7 +3191,7 @@
         <v>43924</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3253,7 +3253,7 @@
         <v>43956</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3310,7 +3310,7 @@
         <v>43956</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3367,7 +3367,7 @@
         <v>43993</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3424,7 +3424,7 @@
         <v>44000</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3486,7 +3486,7 @@
         <v>44104</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3543,7 +3543,7 @@
         <v>44148</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3600,7 +3600,7 @@
         <v>44183</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3662,7 +3662,7 @@
         <v>44316</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3719,7 +3719,7 @@
         <v>44332</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3776,7 +3776,7 @@
         <v>44403</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3833,7 +3833,7 @@
         <v>44434</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3890,7 +3890,7 @@
         <v>44462</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3947,7 +3947,7 @@
         <v>44473</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4004,7 +4004,7 @@
         <v>44523</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4061,7 +4061,7 @@
         <v>44540</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4118,7 +4118,7 @@
         <v>44550</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4180,7 +4180,7 @@
         <v>44558</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4242,7 +4242,7 @@
         <v>44602</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4304,7 +4304,7 @@
         <v>44602</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4366,7 +4366,7 @@
         <v>44602</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4428,7 +4428,7 @@
         <v>44610</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4485,7 +4485,7 @@
         <v>44616</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4542,7 +4542,7 @@
         <v>44630</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4599,7 +4599,7 @@
         <v>44635</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4656,7 +4656,7 @@
         <v>44638</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4713,7 +4713,7 @@
         <v>44713</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4775,7 +4775,7 @@
         <v>44713</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4837,7 +4837,7 @@
         <v>44720</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4894,7 +4894,7 @@
         <v>44726</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4951,7 +4951,7 @@
         <v>44730</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5008,7 +5008,7 @@
         <v>44834</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5070,7 +5070,7 @@
         <v>44840</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5127,7 +5127,7 @@
         <v>44867</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5189,7 +5189,7 @@
         <v>44872</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5246,7 +5246,7 @@
         <v>44872</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5303,7 +5303,7 @@
         <v>44875</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5365,7 +5365,7 @@
         <v>44875</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5427,7 +5427,7 @@
         <v>44881</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5489,7 +5489,7 @@
         <v>44883</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5551,7 +5551,7 @@
         <v>44883</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5613,7 +5613,7 @@
         <v>44889</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5675,7 +5675,7 @@
         <v>44973</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5732,7 +5732,7 @@
         <v>44987</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5794,7 +5794,7 @@
         <v>45020</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5856,7 +5856,7 @@
         <v>45034</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5918,7 +5918,7 @@
         <v>45036</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5975,7 +5975,7 @@
         <v>45044</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6037,7 +6037,7 @@
         <v>45044</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6099,7 +6099,7 @@
         <v>45050</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6161,7 +6161,7 @@
         <v>45050</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6223,7 +6223,7 @@
         <v>45050</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6285,7 +6285,7 @@
         <v>45054</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6342,7 +6342,7 @@
         <v>45069</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6399,7 +6399,7 @@
         <v>45084</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6456,7 +6456,7 @@
         <v>45167</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6513,7 +6513,7 @@
         <v>45167</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
